--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_162.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_162.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g33182-d82344-Reviews-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>229</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Courtyard-By-Marriott-Los-Angeles-Torrance-Palos-Verdes.h25549.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_162.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_162.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="989">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>PilotMichael</t>
+  </si>
+  <si>
     <t>06/29/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>I was surprised that this Courtyard had such very nice rooms. Even though they were very nice, I thought it was quite a bit overpriced. Especially for the city that it’s in. There’s absolutely nothing special about the location.More</t>
   </si>
   <si>
+    <t>Snoopydad1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r582304106-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -213,6 +219,9 @@
     <t>We had a late check-in and were greeted and accommodated with issues.  We did wince at being placed next to the elevator (late night beggers can't choosers) but were pleasantly surprised at the absence of noise from the elevator.  Did not like the way the door was hung separating the sink area from the shower area.  The door opened right into where someone would be standing at the sink.  Could have laid that out a lot better.  Bed was comfy, pillows same.  A comfortable visit.More</t>
   </si>
   <si>
+    <t>Lorne29</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r574467948-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -234,6 +243,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Jacco G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r558871023-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -255,6 +267,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Alan K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r550155037-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -273,6 +288,9 @@
     <t>December 2017</t>
   </si>
   <si>
+    <t>JamesDMo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r549859081-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -291,6 +309,9 @@
     <t>We don't typically stay in Marriott properties, having elite status in a main competitor, but this Courtyard has me considering more stays here. Karen and Dolores at the front desk were consistently helpful and friendly for 3 days, even when we presented a few untypical requests. Always a smile and the attitude was clearly, "we want to make our guests happy".Rooms were spacious and clean. Good working space at the desk and nice to have a sofa and balcony. Good location for many South Bay businesses and activities. I missed my usual "free breakfast" at a competitor, but I must admit that the Bistro here, while fairly simple, had a very good variety of breakfast options at a relatively decent price. Breakfast staff were all excellently helpful.A very good stay for our family and a very good chance that we will want to return!More</t>
   </si>
   <si>
+    <t>Sheplabs</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r545133769-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -309,6 +330,9 @@
     <t>November 2017</t>
   </si>
   <si>
+    <t>Michael S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r536523093-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -336,6 +360,9 @@
     <t>Have stayed at many Marriott and honestly this one was a little bit of a let down.  The grounds are well kept and front desk was average friendly on checking in.  However , the room did not feel like a modern Marriott Courtyard.  Maybe they need to remodel , very bland and for over 200 a night would of expect a lot more.   Few towels , no hand lotion , small shower and just less than comfortable.   Sorry Marriott , as a platinum member will always keep coming back but this one just did not meet the standard.   Honestly, if maybe 125 a night or less and a quick stay okay , but way to expensive for what was received. More</t>
   </si>
   <si>
+    <t>Anthony T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r535791890-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -351,6 +378,9 @@
     <t>My title says it all. What do you need when you're away from home. A good place to relax, comfortable, clean and nice front staff. It was a great experience. My room was updated and it was comfortable. The location is great if you're needing south bay LA area. Not far from Redondo Beach and Manhattan Beach or Palos Verdes. Easy access to LAX and/or Long Beach area.</t>
   </si>
   <si>
+    <t>Heather M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r525601696-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -372,6 +402,9 @@
     <t>Stayed for 2 nights for a family getaway for the Labor Day weekend. We only stay at Marriott brand hotels and have stayed at other courtyards before and this is courtyard might as well be a motel 8 with the horrible check in (line was 30 min. out the door), service by front desk and house keeping was beyond rude and demeaning. Our room and other guests rooms were not clean and ready until 2 hours or more after check in time. Room was filthy, especially the bathtub and carpet floors by where we slept. I could give details but I will let you use your worst nightmare and imagination. Loud lobby, loud hallways, loud outside by the pool and extremely outdated property. Drive further and go to the Pasadena Courtyard where you are still treated like a Marriott guest with clean rooms with excellent and quick check in service.More</t>
   </si>
   <si>
+    <t>Irvan S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r510601710-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -393,6 +426,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Lynn_Lyon</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r506006779-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -408,6 +444,9 @@
     <t>We stayed for the weekend after work with Toyota next year.  The hotel is a solid 3.  It's dated but clean and the staff is nice.  Free parking so it's a good value and a relatively easy drive to other parts of S CA with more things to do.</t>
   </si>
   <si>
+    <t>Mseries</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r499286107-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -426,6 +465,9 @@
     <t>We went right after 4th of July so not many people were there. Upgraded to a very large suite. Room was very clean. Room overlooked the courtyard, which was beautiful and relaxing, even next to the fire. The only odd thing was the light switches. I understand sensors to save on electricity but having a switch outside the bathroom was quite annoying. No breakfast but no big deal. Plenty of restaurants nearby. For us, ding Tai Fung and 85 degrees was nearby so that hit the spot. Plenty of Korean restaurants nearby along with the usual chain stores. It is a bit away from the beach but it's a very safe neighborhood and hotel. Even though we thought we locked the room, we found it ajar. Thankfully, nothing was taken or any one in the room. Was able to sleep peacefully after checking underneath the bed. They do have a self laundry area in the back 1st floor area. They do have a bistro restaurant in the lobby area. More</t>
   </si>
   <si>
+    <t>Marcia H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r497777171-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -453,6 +495,9 @@
     <t>I wanted to really like this hotel because it was SO convenient to where I was working for the week and it was also convenient to restaurants and shopping... convenient as far as So Cal goes, which means its a 5-10 minute drive.  But it was a bit pricey for what you got ($244/night) and though it was clean and quiet, and my room had been updated recently, the elevator and side entry doors looked tired.  The price did come with breakfast, however.  My main complaint was the bistro.  Now I know I shouldn't be complaining about free food, and it was tasty (a breakfast sandwich one morning and scrambled eggs the next) but holy cow were they slow.  Seemed like maybe they didn't have enough people working as it took nearly 20 minutes both mornings to get the food and that was after I stood in line for 10 minutes to order.  And dinner was worse.  I was tired and didn't want to leave the premises to scrounge for dinner and I thought - how difficult can it be to put together a SW cobb salad to go?  At least 10 minutes waiting to place my order (only 1 person at the counter) and another 30 to get the salad.  And the quality of the salad wasn't really any better than I could have gotten at Ralph's deli.  And it would have been cheaper.  $12 for a salad.  Oh,...I wanted to really like this hotel because it was SO convenient to where I was working for the week and it was also convenient to restaurants and shopping... convenient as far as So Cal goes, which means its a 5-10 minute drive.  But it was a bit pricey for what you got ($244/night) and though it was clean and quiet, and my room had been updated recently, the elevator and side entry doors looked tired.  The price did come with breakfast, however.  My main complaint was the bistro.  Now I know I shouldn't be complaining about free food, and it was tasty (a breakfast sandwich one morning and scrambled eggs the next) but holy cow were they slow.  Seemed like maybe they didn't have enough people working as it took nearly 20 minutes both mornings to get the food and that was after I stood in line for 10 minutes to order.  And dinner was worse.  I was tired and didn't want to leave the premises to scrounge for dinner and I thought - how difficult can it be to put together a SW cobb salad to go?  At least 10 minutes waiting to place my order (only 1 person at the counter) and another 30 to get the salad.  And the quality of the salad wasn't really any better than I could have gotten at Ralph's deli.  And it would have been cheaper.  $12 for a salad.  Oh, and here's the killer.  Had I chosen to have a glass of wine, the "happy hour" price for an 8 oz pour was $11.  I think the whole bottle would have cost $13 at Ralph's though I guess I would have had to have purchased a cheap corkscrew also.  Anyway... stay here but eat elsewhere.More</t>
   </si>
   <si>
+    <t>jongable</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r495738960-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -468,6 +513,9 @@
     <t>I was able to get a rate of only $140 per night, which was much lower than the other hotels south of LAX.  There was very little noise from outside the hotel because it is off of Sepulveda instead of a highway.  However, the rooms are a bit older so the HVAC units are very loud.  The age of the rooms was evident with its furniture and carpeting too.  I would stay here again, but it would be nice to see the hotel rooms get updated.</t>
   </si>
   <si>
+    <t>mistysage</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r482150893-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -486,6 +534,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>jlg22</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r467938411-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -507,6 +558,9 @@
     <t>We stayed  here for 3 days during the Christmas holiday. The rooms were big and the beds were comfortable. The front desk staff were very polite and helpful and never hesitated to answer our questions or help us when we needed it. The location is on a major street but since we asked for our room to be as far away from the main street as possible, we did not hear any noise coming from the main street. There were a couple of restaurants within walking distance and the huge Del Amo Fashion Center is not too far from the hotel. We did come by car though so it is still more convenient if travellers come by car. The hotel has plenty of parking. The only things that stopped me from giving the hotel 5 stars was that I wish breakfast would have been included and that the furniture in the room was a bit worn down. However, the fact that they also had computers with internet access and printers to print out boarding passes/air tickets was also convenient. This hotel would have actually gotten a 4.5 rating from me if I could choose that option. Overall, I enjoyed our stay here and would stay here again when I come back to visit my family in L.A. I do recommend this hotel. More</t>
   </si>
   <si>
+    <t>Dawn P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r466087679-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -534,6 +588,9 @@
     <t>The lobby of this hotel is beautiful but the rooms are old and outdated. We felt like they were dirty and just felt "icky". I would not stay here again. We stayed two nights. Not up to Marriott standards. More</t>
   </si>
   <si>
+    <t>Diane H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r459823285-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -552,6 +609,9 @@
     <t>February 2017</t>
   </si>
   <si>
+    <t>SeeCanada</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r456284679-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -570,6 +630,9 @@
     <t>January 2017</t>
   </si>
   <si>
+    <t>339outandabout</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r452653812-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -585,6 +648,9 @@
     <t>After a long day of driving and some meh hotels along the way, this property was a welcomed relief! Fabulous staff, clean and spacious rooms and very quiet for its urban location. We had a meal at their on property restaurant too. Good food but typical hotel prices. (Kinda high) But at the end of a long day, it was all very good! Highly recommend!</t>
   </si>
   <si>
+    <t>pvbadger</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r432256059-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -612,6 +678,9 @@
     <t>Don't be fooled by the grounds or lobby.  This Courtyard is in serious need of room renovations.  Beds are rugged and room interiors likely not refurbished since the place was erected.  Also, it's listed as a Palos Verdes hotel but is a good 15 minute drive from the outskirts of the primary PV borders.  Don't be fooled.More</t>
   </si>
   <si>
+    <t>BBurns17</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r428551711-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -627,6 +696,9 @@
     <t>Clean property with plenty of free parking.  A shopping center is close by loaded with stores and restaurants and great for last minute purchases..  We were cruising the next day and the port was only 19 minutes away.  The cafe staff very attentive.</t>
   </si>
   <si>
+    <t>alexmccabe2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r425716018-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -642,6 +714,9 @@
     <t>They go above and beyond to make sure you are taken care of. The personal touch and truly caring attitude makes you feel at home. It's hard to find big businesses these days that care that much about their customers...these people do. Thanks again!</t>
   </si>
   <si>
+    <t>RedondoSurferDude</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r405775426-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -660,6 +735,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>M T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r403424252-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -678,6 +756,9 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>loveTravel_987</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r402252278-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -693,6 +774,9 @@
     <t>Hotel may not be in a tourism location. But it certainly is an excellent choice if you are in the area. Easy access to restaurants in the area too. Front desk staffs are very friendly, hotel is in very good condition. Room is decent, very comfortable beds and quiet air conditioning. We were very happy to stay there</t>
   </si>
   <si>
+    <t>Cliff B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r387742795-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -711,6 +795,9 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>Normtf</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r383789600-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -729,6 +816,9 @@
     <t>Picked it for just one night in Torrance. Photo looked nice, so I booked it. Well, it's not as new as I thought it was. Room was clean, beds and bedding good, but place in need of a refresh. Fortunate to be so close to 405. Unfortunate that the room was on the corner closest to the 405 and very noisy. Ask for a room on the interior. Guessing those are quieter and maybe nicer with sliders to a balcony overlooking the pool and courtyard. Nice outdoor seating areas. Breakfast area is like ordering from a bar. Food not bad, but a little pricey, especially if you have your family with you. People nice all around. Parking free; surface lots around hotel. More</t>
   </si>
   <si>
+    <t>Michelle B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r380736011-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -747,6 +837,9 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>USNA70</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r367968141-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -765,6 +858,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>TheMM16</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r367024178-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -781,6 +877,9 @@
   </si>
   <si>
     <t>February 2016</t>
+  </si>
+  <si>
+    <t>drdasd</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r365705066-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
@@ -807,6 +906,9 @@
 The HVAC unit in the room did a good job keeping the temperature set and wasn't too noisy when operating.  The small refrigerator in the room was handy for...My son and I stayed here for the weekend while attending the Long Beach Grand Prix.  It was actually more convenient that I anticipated with relatively close access to 110 (left  the "the" out since I'm from Northern CA!).The overall facility appeared to be well maintained inside and out.  The elevator was pretty quick but did show some wear inside (e.g., broken trim), but not a big deal.  We were given an accessible room, though we did not need or request one.  None the less, the room was clean and comfortable.  The bathroom counter was pretty small which I'm assuming may have been to provide wheel chair access.  Not a problem for my son and I, however it probably would have been a challenge if my wife or daughters were there!  Unlike some accessible rooms I've stayed in, the removable handle shower allowed a high enough placement that I didn't have to stoop.  The water temp and pressure were perfect.  Something I've learned not to take for granted at some properties!  Even though it was an accessible room, the shower was a combo bath/shower unit.  Usually these type of rooms have a shower stall.  I did notice a removable seat under the sink however.  Didn't affect us, just an observation.The HVAC unit in the room did a good job keeping the temperature set and wasn't too noisy when operating.  The small refrigerator in the room was handy for cooling our bottles of water for the hot days at the track.The beds were comfortable and I noticed the pillows provided a couple of options which was nice.There was no closet per se, just an niche with a rack and set of hangers.  I'm not sure whether this is because it's again an accessible room or typical of all rooms.  The only thing missing that I would have liked is an in-room safe, which I notice others have commented on.  In my opinion, having a safe benefits both the hotel and customers by minimizing risk to both parties.  Most people travel with items of value which they would rather not carry with them all the time but have to weight the risk of leaving unsecured in the room, in a car or lug around all day.  Further, for business travel, I typically will only stay at properties that have in-room safes.  That said, we had a pleasant stay and would definitely consider staying here again for next year's race!More</t>
   </si>
   <si>
+    <t>Steven W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r363639628-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -822,6 +924,9 @@
     <t>I was visiting a friend and this hotel was close to where he lived.  He said he has had folks visit him, but they have not stayed in this hotel, saying, once he saw it, he would recommend it.  The bed was comfortable.  The "restaurant" is small and did not appeal to my wife or I (there are lots of other dinning options in the area).  There is a small vending area next to the front desk.  Rooms on the upper floors are a better choice if you want something quiet.  Room was clean.</t>
   </si>
   <si>
+    <t>Christine B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r357602482-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -849,6 +954,9 @@
     <t>I would call this a solid 3 hotel. I stayed 5 nights in early March. One of the main reasons for my rating is that I felt the room rate was quite high for the accommodations. The rate varied according to the night I was there with an average of close to $200 a night including taxes. This was in spite of the fact I was in town for a wedding with many other family members staying at the same venue with a group rate for 3 nights and did not include breakfast. That being said, the beds comfortable and the rooms clean. The hotel has a small cafe for breakfast and light meals at dinner. The breakfast is served "Panera Style" in that you go to the counter to order and they give you a number to put on a stand to place on your table. When the food is ready, the server brings it out to you. You can order a full breakfast with eggs, toast, etc or muffins/yogurts/etc. Coffee is Starbucks, no refills. They have a nice outdoor pool and sitting area (including gas operated fire ring). I had a 2nd floor room over looking the parking lot but an inside room opening to the pool area looked nice. The gym had nice equipment - two tread mills, an elliptical and bike, however the televisions did not work on them which was unfortunate and puzzling as they...I would call this a solid 3 hotel. I stayed 5 nights in early March. One of the main reasons for my rating is that I felt the room rate was quite high for the accommodations. The rate varied according to the night I was there with an average of close to $200 a night including taxes. This was in spite of the fact I was in town for a wedding with many other family members staying at the same venue with a group rate for 3 nights and did not include breakfast. That being said, the beds comfortable and the rooms clean. The hotel has a small cafe for breakfast and light meals at dinner. The breakfast is served "Panera Style" in that you go to the counter to order and they give you a number to put on a stand to place on your table. When the food is ready, the server brings it out to you. You can order a full breakfast with eggs, toast, etc or muffins/yogurts/etc. Coffee is Starbucks, no refills. They have a nice outdoor pool and sitting area (including gas operated fire ring). I had a 2nd floor room over looking the parking lot but an inside room opening to the pool area looked nice. The gym had nice equipment - two tread mills, an elliptical and bike, however the televisions did not work on them which was unfortunate and puzzling as they seemed to be hooked up to cable. Would be nice if the hotel maintained them better. They also had a bench and some free weights, towels and a water cooler. I was very disappointed that the room had no safe which seems like a huge over site given the hotels location in a large city where theft could be a concern. Hotel was centrally located, very close to the Del Amo mall and many eating options (mainly of the Asian and Mexican variety). The lobby had free newspapers, cookies and a water dispenser as well as a small vending area. Staff was professional and helpful. Plentiful parking. Hotel was quiet but did not seem to be full the week I stayed.More</t>
   </si>
   <si>
+    <t>Cooking_Hawaiian</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r353463620-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -864,6 +972,9 @@
     <t>This hotel stood up to the typical marriott quality that I have come to expect, but this hotel is very noisy...at least in my room.  I was on the lower level next to the side entrance and elevator so all day long, all i could hear was the entrance door opening and slamming, rooms opening and slamming..i have never been in such a noisy hotel.  Other than that, everything else was fine.</t>
   </si>
   <si>
+    <t>OMN-SR22</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r338929743-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -882,6 +993,9 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>Regina926</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r335768140-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -898,6 +1012,9 @@
   </si>
   <si>
     <t>My husband and I have stayed multiple times at this Courtyard and we have never been disappointed! The reviewers who state that the location is 'sketchy' and not upscale enough obviously aren't familiar with the area (we are locals who have moved away and come home to visit, so we know a thing or two about Torrance and PV.) The hotel is located in a mixed commercial/residential area very close to lovely homes, great shopping, and a terrific park that hosts an amazing farmers' market on Saturdays. As for the hotel itself-the property is spotlessly clean and the rooms and common areas are very well kept, as are the gardens. Every single staff member that I encountered (and most have been employed at the hotel for several years and they immediately recognized us) was friendly and professional. My husband's status as a Marriott preferred guest was noted as well, and our reservations were handled smoothly by the Marriott. A last minute plane cancellation resulted in our stay having to be extended for an extra day, and this issue was solved easily as well. I would highly recommend this property!More</t>
+  </si>
+  <si>
+    <t>Andrew D</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r334851721-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
@@ -924,6 +1041,9 @@
 I am a Marriott Gold Elite member, which normally should give free breakfasts (but I've heard this does not apply at Courtyards), and such was the case.  However, when I asked about this benefit when checking in, the front desk agents let me spin their “Wheel of Fortune” wheel at the front desk.  When I did not land...This was a nice place and the price was great for the type of hotel.  I booked directly on the Marriott website and got a great deal.  I arrived early, at 9am, and asked if there might be a room available at checkin.  The front agents were polite, but told me that a room might open up at 10am.  This hotel has many comfortable sitting areas in the lobby where you can crash to wait for a room.  I spent the next hour in front of a TV showing a football game, reading a complimentary newspaper, and working on my laptop (no password needed for their wifi).  I was surprised at asking around 10:30am that they could give me a room that early.  Hotel was clean, a bit dated, but rooms were spacious.  I had a room at the far end of the left side (hotel is in a U shape with R and L wings).  They gave me late checkout at 2pm also.  There is a swimming pool (heated) but no hot tub.  The wifi worked well and was plenty fast.  I am a Marriott Gold Elite member, which normally should give free breakfasts (but I've heard this does not apply at Courtyards), and such was the case.  However, when I asked about this benefit when checking in, the front desk agents let me spin their “Wheel of Fortune” wheel at the front desk.  When I did not land on the "free breakfast" slot, they "cheated" for me and gave me a free breakfast anyway.  This was a super nice gesture.  The breakfast was nothing special, but the polite and friendly staff made this stay really nice.More</t>
   </si>
   <si>
+    <t>Fred C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r333029397-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -942,6 +1062,9 @@
     <t>Walked in at 10:00 pm to have a lovely person (lady) welcome me by name and tell me my room was ready!I asked how she could possibly know my name and was told I was the only patron who had not checked in that day...so by process of elimination.  The check in was under 1 minute and I was given a ground floor (beautifully appointed) room with a pool view...which Marriott provides to members.  It was quiet, comfortable and surpassed all my expectations.  The rate was most competitive for the area and I will definitely return.  The hotel is in an industrial area so I wouldn't recommend it for honeymooners (kidding), but central location for business in Southbay.More</t>
   </si>
   <si>
+    <t>JDD800</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r329814056-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -960,6 +1083,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>Craig B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r328886341-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -975,6 +1101,9 @@
     <t>We spent 6 days at this excellent hotel.  Rooms are comfortably designed and tastefully decorated.  Impeccably c nicely textured walls covered in a range of soft pastel colors.  The surrounding landscape is lush and well manicured.  First impression upon entering the courtyard setting is one of peace and serenity.  Friendly staff.  Clean, fluffy linens in the rooms.  The hotel's own Bistro Restaurant features fine dining.  The only average score given as we attempted  to rate this facility candidly was earned by the bathroom area, which had only a small space for the sink, and the bathroom itself was not engineered with a humidity extraction system.</t>
   </si>
   <si>
+    <t>Knevel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r320270486-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -993,6 +1122,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>Kate T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r319120297-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -1017,6 +1149,9 @@
     <t>This hotel was average. People at the front desk are especially nice! Our room was expensive and not great. And note there is no free breakfast. Good things- fridge in room. The room seemed clean. Problems- our first room had ants, so we moved to another room. The bed was broken in there. It's room 244 in case you get that room. I can't imagine we are the first to notice. So we moved a third time at 10:30pm. Our kids were exhausted and we were too from unpacking twice and repacking again. We got up to the third room and it had ants too. Normally this wouldn't be more than a hassle, but we had two cakes with us that we kept up in the closet. Thankfully the ants never found them! So I'd probably not stay here again. I felt like for the cost it was disappointing.More</t>
   </si>
   <si>
+    <t>Christal N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r316358364-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -1041,6 +1176,9 @@
     <t>Ok let me just start by saying, if you are renovating then the rates need to be lower than normal. To pay 125 a night and listen to painters all day outside is crazy...could not access our patio until after 5pm daily...had major ant issues the entire 3 nights we were there...hotel still has yet to address this to my liking (like a discount on our stay)...WiFi was horrible...should not have to pay extra to be able to read emails or surf the net...A/C in room very loud...never touched chair in room cause it looked dirty and old....this will unfortunately be my last stay on this property....Marriott needs to get it together or I am about to start using Hyatt.More</t>
   </si>
   <si>
+    <t>GJean1565</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r309685538-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -1059,6 +1197,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>spares99</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r309388840-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -1083,6 +1224,9 @@
     <t>Stay here a lot when I travel to Torrance on business, but this trip was rough as the A/C in the room barely cooled the room and everyday when I left, someone would turn it back up while I was gone and it would take forever to cool back down.  Humidyity was awful too, so i sweat all night.  I will have to start staying at another hotel in the future if this keeps up.More</t>
   </si>
   <si>
+    <t>Nancy7333</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r307958128-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -1098,6 +1242,9 @@
     <t>We only stayed one night at the Courtyard but the hotel was very nice and the staff was friendly and provided excellent service.  The lobby area had a nice sitting area for meeting and having a quick bite to eat.</t>
   </si>
   <si>
+    <t>Kylie M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r305430697-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -1125,6 +1272,9 @@
     <t>Stayed here on the recommendation of the wedding couple for the wedding we were attending.  From their arrangement, there was supposed to be breakfast included (as this facility does currently have a promotion for that) however during our stay, they could not accommodate that offer and I did not bother to press them on this while speaking to the hotel staff.  Granted I might be tired from work and travel during the week, prior to this weekend stay in Torrance, however, this facility did not assist in helping me rest or relax for many reasons.  The phone did not work in our room, so when we had *ants streaming* into the bathroom/sink area near the closet where we might hang our suits and dresses (for the wedding), we had to use our mobile phone to call the front desk (which ironically told us that they were aware of the dead phones in the guest rooms yet THEY at the front desk had working phones, so why are guest room phones dead?!).  We were told that the 'internet company' had been already contacted about the dead phones in the guest rooms; fine, no big deal since we have our mobile phones.  Next, trying the coffee pot in the room, we discovered that that too did not work.  We tried moving the coffee machine around the room trying different electrical outlets just to make sure that it was truly nonfunctional.  Since our...Stayed here on the recommendation of the wedding couple for the wedding we were attending.  From their arrangement, there was supposed to be breakfast included (as this facility does currently have a promotion for that) however during our stay, they could not accommodate that offer and I did not bother to press them on this while speaking to the hotel staff.  Granted I might be tired from work and travel during the week, prior to this weekend stay in Torrance, however, this facility did not assist in helping me rest or relax for many reasons.  The phone did not work in our room, so when we had *ants streaming* into the bathroom/sink area near the closet where we might hang our suits and dresses (for the wedding), we had to use our mobile phone to call the front desk (which ironically told us that they were aware of the dead phones in the guest rooms yet THEY at the front desk had working phones, so why are guest room phones dead?!).  We were told that the 'internet company' had been already contacted about the dead phones in the guest rooms; fine, no big deal since we have our mobile phones.  Next, trying the coffee pot in the room, we discovered that that too did not work.  We tried moving the coffee machine around the room trying different electrical outlets just to make sure that it was truly nonfunctional.  Since our room phone was dead, we use our mobile phones to call front desk and they told us that they would send someone to fix/replace the coffee maker.  Waited one hour, then two hours.  Nothing.  Decided to phone them after we returned from a coastal drive, to see no new coffee maker, and another few hours, we get a new one which works!  Final insult?  The facility's internet browser is not compatible with my airline's website.  There was no way to print out our boarding passes from the facility.  We tried all the computers and even the ones at the front desk.  No worries though as we could still get the tickets at the airport.  All the staff could do for all these situations was to say, 'SORRY.'  Sorry, but it does not show that breakfast was included in the booking.  Sorry, that the phone does not work in your room and that you are calling us with your own mobile phone.  Sorry, that your coffee pot is not working.  Ants? Sorry that you see them but nothing will be done about switching your room for an insect free experience.  Finally, if one were to consider staying during the weekend, perhaps you ought to request a room not facing the pool because if you are not outside enjoying LA and decided to catch up on sleep during the day ... forget it -- the children laughing and splashing in the pool can be heard from the room (even with the glass door closed and curtains drawn).  I'm sure the management and facilities will improve, as the building (inside and out) seems due for renovation and most of the staff give off the feel of employees-in-training.  The fire pits at night were lovely.  Welcome to the Torrance experience :)  It's not too bad.  Ants and all we now have stories to tell!More</t>
   </si>
   <si>
+    <t>AmericanOdyssey</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r304508053-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -1152,6 +1302,9 @@
     <t>I really enjoyed my stay at the Courtyard Torrance/Palos Verdes.  The staff was very friendly and immediately made my party feel welcomed.  I was traveling with my wife, mother, and grandfather.  The staff was very conscientious prior to our arrival; they arranged to have our rooms close to each other.The hotel was very clean and comfortable.  The rooms were a little dated and showed some wear, but overall we enjoyed a very nice experience.More</t>
   </si>
   <si>
+    <t>TktPlease</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r296345649-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -1176,6 +1329,9 @@
     <t>I requested a 2 queen room when I made reservation. When I checked in, I got to room to find a room with one bed. Ok.. So not an issue so far. I called to request correct room, but front desk said I requested wrong room. That wasn't true. I looked up my reservation and walked to front desk. I was firm but polite, but was made to feel like I was the reason for issue. I've stayed at Marriott 100's of times. It was one of the worst check in experience. More</t>
   </si>
   <si>
+    <t>Sandra M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r288960646-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -1194,6 +1350,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>Bill- C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r287919621-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -1209,6 +1368,9 @@
     <t>... another biz trip, another hotel...  However, when I visit clients in the South Bay, I find myself staying here again and again...  With all the choices in this area, I've stayed at this Courtyard more than a dozen times, and I come back for the same reasons...  The warm and ever gracious front desk staff makes check-in and and my endless reservation changes smooth as silk, and the Bistro crew, Zahia and Alex, rock(!); my embarrassingly complicated coffee order is always handled effortlessly and with a big smile, which brings me back, again and again...  Thanks all!</t>
   </si>
   <si>
+    <t>Lisa M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r287320565-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -1224,6 +1386,9 @@
     <t>The biggest reason for the review is the hotel staff, on every level.From check-in to housekeeping, and the bistro the service was the most courteous and helpful I have experienced in a long long time.  The property is convenient, clean and comfortable.  But I'd return just for the staff!  How refreshing!!!</t>
   </si>
   <si>
+    <t>Raisinking1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r281711140-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -1242,6 +1407,9 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>chrisau2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r274924039-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -1260,6 +1428,9 @@
     <t>My wife and I stayed at the Courtyard for a weekend and wedding. We showed up at 2 pm, before check in time, but they made a room ready for us. After checking in we showered for the wedding and there was no lotion in the room, so after a quick trip to the front desk the staff quickly provided us two bottles of lotion. On the whole we thought the service was very attentive and more than acceptable but apparently Mariana (with Marriott) did not think so. When we returned to our room after the wedding we were greeted with a note apologizing for the inconvenience (we didn't think there was was any) and provided two coupons for free Starbucks in the morning and candy for the evening. All around the level of service at the Courtyard, and in particular from Mariana was far above the call of duty. We will be staying here again when we return to the area!!More</t>
   </si>
   <si>
+    <t>Alex C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r273916652-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -1275,6 +1446,9 @@
     <t>I and my girl friend are consistant customer for this hotel and we always appreciate a help of exellent/professional customer service by Gloria.  There are many hotels in Torrance area and her excellent service make us to come back.</t>
   </si>
   <si>
+    <t>bflip</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r270735905-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -1290,6 +1464,9 @@
     <t>From the moment Brenda greeted me when I walked in the front door, I knew this was going to be a great place to spend a couple of days.  The hotel is well maintained, the bed was firm and the room quiet.  Everything you expect.  The difference is the people.  Everyone I spoke to was enthusiastic, friendly and very helpful.  But truthfully Brenda set the standard.  If you are going to be in Torrance, I highly recommend this place.</t>
   </si>
   <si>
+    <t>Robert Y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r270673830-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -1305,6 +1482,9 @@
     <t>staff very responsive.  Good freeway location.  Excellent café and breakfast/service.  GM was responsive accessible and responded well to special request.  Pricing very competitive and would stay at the location again</t>
   </si>
   <si>
+    <t>Paul P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r270488622-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -1320,6 +1500,9 @@
     <t>From the moment I checked in until the moment I checked out, it was an unexpectible stay.  The staff was more than accomodating and I recieved a great suite.  It was a great stay and and the best part was having Stephanie to accomodate.  After a long day with meetings, Stephanie radianted charm and rejuvanized us.  What a great gal, she makes it better than being at home. The staff was more than accomodating. Marianna at the front desk was effecient, professional and had a great sense of humor. This has became my preferred hotel over high rised hotels.</t>
   </si>
   <si>
+    <t>Tim J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r267316508-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -1374,6 +1557,9 @@
     <t>We checked in on a Monday to find out there was no elevator service, but they put us on eht esecond and third floors with no offer of help to get our bags to our rooms.  Make sure to call ahead and find out if you need to bring a cart with you....Pillows are the worse, not sorry second worse only to the Hyatt Pace pillows.  Sorry to be so blunt, but they cannot hold up a can of air.  Makes for a very lousy nights sleep.  And the beds are HARD, and it makes for some sleepless night and painful mornings.  This stay was very noisy, every morning at about 5AM the doors started slamming in the hallways and you cannot sleep.  The morning breakfast, NOT included, was very good, but maybe that is because it is not included and since you have to pay for it each morning (plan to spend a fortune 11-15 dollars for breakfast and coffee) it is better.  There is no free coffee in the lobby, they force you to drink the expensive Starbucks coffee.  Maybe the Starbucks CEO can have his folks start that conversation about how expensive his coffee is and how most americans cannot afford it.  Just a thought since he claims to be so concerned about the countries conversations….More</t>
   </si>
   <si>
+    <t>FrankPatti1959</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r266451449-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -1384,6 +1570,9 @@
   </si>
   <si>
     <t xml:space="preserve">Nice standard accommodations.  PROS: clean, friendly, lots of plugs, strong WiFi.  CONS: no jacuzzi and breakfast selections are at best average and somewhat over priced.  $14 for eggs, toast, TINY fruit cup and coffee.    All in all, it was a good experience. </t>
+  </si>
+  <si>
+    <t>OutAndAboutSF</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r255794289-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
@@ -1413,6 +1602,9 @@
 When I checked into my room, there was a used washcloth still left in the bathroom and a used coffee in the coffee machine. Staff, do try to be more careful. This sort of thing is a...I travel up and down California from SoCal to Chico and points in-between. I stay pretty much stay exclusively at Courtyards. (I'm a Platinum member) Staying at a Courtyard is pretty much like going to McDonald's. You know what to expect no matter what city you are traveling in. This is compliment of sorts because when traveling away from home, no one likes a negative surprise.I have stayed here about 40-50 nights over the last couple of years and this Courtyard does not disappoint. That staff are always friendly. The Bistro is adequate when traveling alone and not wanting to eat alone in a restaurant somewhere. I've only stayed in King Suites so I can't comment on the standard rooms. The King suites are very comfortable. I can't stand a standard shoebox style hotel room. On my last trip last week, the only room I've ever stayed in was not available so I was put in a "handicap access" king suite. I'll try to avoid this type of suite again because there is no "kitchen area" and I didn't enjoy using the work desk as my kitchen counter top. Not the hotels fault, just my preference to have a standard king suite. When I checked into my room, there was a used washcloth still left in the bathroom and a used coffee in the coffee machine. Staff, do try to be more careful. This sort of thing is a turn-off to most people. For a seasoned traveler like me, not the end of the world. I've seen far worse. The shower valve needs to be repaired. Very difficult to get the water temp comfortable. Comes out too hot. I can't believe the maids haven't reported this. For the Bistro staff, if I want the tuna salad sandwich, don't tell me there's no tuna made and I'll have to order something else. Take a couple if minutes and whip up a can of tuna for me. Didn't appreciate that. For all Courtyards, why is not the room TV service the same as the lobby TV service. It's 2015 and you still have channels in standard definition that look hideous on an HD television. Come on, ALL channels should be in HD in the rooms.Someone reviewed that this hotel is in a "scary neighborhood." Completely 100% false. There are no gangs or prostitutes or other riffraff anywhere near this area. Completely safe area. I've had 99% positive experiences at this property and will continue to stay at this Courtyard when I'm here on business.More</t>
   </si>
   <si>
+    <t>Ctuason</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r254747391-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -1437,6 +1629,9 @@
     <t>The only reason this is average is because of the very helpful front desk....other than that...this hotel although renovated, looks beat up and not well maintained or cleaned. We reported what looked like broken glass and frapuccino that was spilled all over the side entrance....we came back that night and the big chunks of glass was gone but the walkway to the elevator was still sticky with frapuccino and since people had walked all over it...the sticky mess was now all over the carpet towards the elevator...makes me think about how they clean the rooms....More</t>
   </si>
   <si>
+    <t>Koti333</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r253103905-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -1461,6 +1656,9 @@
     <t>- The hotel and rooms were clean (mattress EXTREMELY soft...as in when you sit on them you sink 5 inches).  Little things wrong- lights burned out and things that have not been maintained.- The staff was VERY nice and helpful.  It is tragic where it is, because they seriously have one of the best staffs I have ever been blessed with being cared for by.- The in hotel restaurant was nice (breakfast is not included).- That being said, regretfully we had to stay in Torrance...as a whole the neighborhood is...nice looking, but if you Google Sepulveda Blvd you will find words like "prostitution" and gangs.  All night and all day you hear sirens.More</t>
   </si>
   <si>
+    <t>macndee</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r241984136-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -1488,6 +1686,9 @@
     <t>My family had the pleasure of staying at the Courtyard in Torrance over the Thanksgiving Break 2014. This is our 3rd time staying at this property just this year alone and we felt like it was time to write a review.  The front desk staff was really nice and and welcoming but the night staff  (Stephanie at the Bistro &amp; Mariana at the front desk) went out of their way to make our stay even more enjoyable. Mariana even remembered my name whenever she saw my family or me in the lobby. The Starbucks was great the first day but the second day our drinks weren't that good but hey the Bistro was extremely busy.  I believe it probably had to do with Black Friday Shoppers returning and people checking out. Don't get me wrong, the ladies behind Bistro counter were nice and greeted us with a smile and always very helpful. The room was nice and spacious (we paid the extra money for a suite) and once again Mariana was very accomodating when we needed extra towels or pillows. Housekeeping also added a nice touch of folding my kids blankets and arranging their stuffed animals.  The only negative is that Teen Nick is available in the lobby but not in the rooms.  My kids really love cartoons and and with so many crazy shows on tv, it would be nice to have a few more kid friendly in-room options...My family had the pleasure of staying at the Courtyard in Torrance over the Thanksgiving Break 2014. This is our 3rd time staying at this property just this year alone and we felt like it was time to write a review.  The front desk staff was really nice and and welcoming but the night staff  (Stephanie at the Bistro &amp; Mariana at the front desk) went out of their way to make our stay even more enjoyable. Mariana even remembered my name whenever she saw my family or me in the lobby. The Starbucks was great the first day but the second day our drinks weren't that good but hey the Bistro was extremely busy.  I believe it probably had to do with Black Friday Shoppers returning and people checking out. Don't get me wrong, the ladies behind Bistro counter were nice and greeted us with a smile and always very helpful. The room was nice and spacious (we paid the extra money for a suite) and once again Mariana was very accomodating when we needed extra towels or pillows. Housekeeping also added a nice touch of folding my kids blankets and arranging their stuffed animals.  The only negative is that Teen Nick is available in the lobby but not in the rooms.  My kids really love cartoons and and with so many crazy shows on tv, it would be nice to have a few more kid friendly in-room options available for the kids.More</t>
   </si>
   <si>
+    <t>Jay W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r240985500-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -1530,6 +1731,9 @@
     <t>It is about as standard a domestic Courtyard as there is.  This is not a negative note, but a reassurance that whatevere you like to find at a Courtyard will be present, here.  Staff is friendly and efficient.  Door keys seem to lose magnetism more readily than at other Marriott hotels.  We had to rekey two keys twice in a weekend stay.More</t>
   </si>
   <si>
+    <t>aries83861</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r235532190-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -1554,6 +1758,9 @@
     <t>This is my favourite hotel to stay at when I am in the Los Angeles area. There is no charge for parking (big bonus in my eyes), fabulous location, with in minutes of the Del Amo mall. Easy access to major free ways. Has many amenities that one would want in a hotel, wifi that actually works, laundry services, restaurant and snacks available on site, and the staff is super friendly and helpful. More</t>
   </si>
   <si>
+    <t>swalkerd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r232622755-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -1581,6 +1788,9 @@
     <t>So I never never never pick a hotel without checking trip advisor. This hotel received great reviews. It is a very clean hotel and EVERYONE is nice. The rooms are clean and out door fire pit is too cool. The grounds are clean and well kept.However, one huge down fall that they really can't fix...which is why I almost didn't say anything, but if you are looking for silent sleep........wellthe walls are so paper thin.I could hear the people above me walking and walking and walking.The people next door moving around and as I walked down the hallway I could hear people in their rooms.  I am not kidding.Sooooooooo, very nice place to stay, just keep ear plugs if you need a really quiet surroundings.And very soft beds.More</t>
   </si>
   <si>
+    <t>RBVHL</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r232558138-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -1593,6 +1803,9 @@
     <t>Good and friendly service and efficiently run.  Beds are a bit hard but otherwise there is the hallmark Courtyard Consistency.  New Lobby is nice.  Not a lot to choose from in Torrance and this is about the best one I have found.More</t>
   </si>
   <si>
+    <t>dancemom6</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r231378001-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -1611,6 +1824,9 @@
     <t>We were traveling in southern CA for about 3 weeks. We first checked into the courtyard on 190th and were very unhappy. We relocated to this hotel and were very happy. The location is great and staff is wonderful. The rooms were a little tight for our big family and not very clean. Jennifer was our initial point of contact and she was something you dont come across everyday, welcoming and with a big smile. I must have talked her ear off for 30 minutes just asking questions. She answered all my questions and went further and printed me directions to all the locations we were planning to visit (i never asked her to do so, she did it on her own). I thought that was so awsome!! Its the little things a staff member can do that make you want to return. We ate at the bistro food wasnt great. Alejandra was so nice. Overall one of our favorite hotels on our little SoCal get away. Thank you!More</t>
   </si>
   <si>
+    <t>DIVA5836</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r230930118-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -1635,6 +1851,9 @@
     <t>We were in California for 14 days due to a death in the family, we had business to handle due to the death. I was very please at the compassion and assistance we received from Guest Service Rep. Jennifer Franco. Courtyard Marriott is very lucky to have her as an employee.The room was very comfortable with a nice little patio so we could walk out into the very nice and warm attractive courtyard with umbrella tables and a fire pit. The hotel was very well kept and clean. The cleaning staff kept our room clean and they were very friendly, The Newspapers, Business center on-line video screen with the flight information for LAX, and the free fresh Lemon or Strawberry water in the lobby was very nice and sophisticated statement. I would definitely stay here in the future...More</t>
   </si>
   <si>
+    <t>斯 蒂</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r228776301-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -1662,6 +1881,9 @@
     <t>Locate in a quite area the hotel offers a nice atmosphere , clean rooms and friendly staff. Outdoor pool and firepit can provide enjoyable entertainment on those hot days and cool nightsHowever there are limited restaurants in the area and the hotrl has limited choice of food. If you are will to take a drive for you food then your ok.Recommendation: There is great Vietnamese Sandwich restaurant place near called "Lee's Sandwiches" More</t>
   </si>
   <si>
+    <t>victhetripper</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r223522190-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -1689,6 +1911,9 @@
     <t>I only spend one night in this hotel and for the quick stop and rest it was very good, Still don't undersand why hotels leave 4 dollars bottle of water in the room. ...Front desk staff was very friendly but miss to help me to enoroll in the hotel points program, I don't usually use this brand, but.... you never know.Wakeup call gave only one try.... that was bad. and continental breafaste starts 630am.... it was late for me. sorry.More</t>
   </si>
   <si>
+    <t>Glendy32272</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r223068014-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -1713,6 +1938,9 @@
     <t>I can honestly say that I had a lovely time here. My boyfriend and I arrived a little after 7 pm on Friday night . We usually like to book a room just as a spare of the moment type of deal. Just to unwind and relax . We got to the hotel and it was a little bit of a wait due to some tourists coming right before us. It was no big deal though , I liked the new remodeling they have going on so it was fine. Our attendant was pleasant and made me feel right at home. I love that kind of welcoming.. Overall , our room was quiet, clean and spacious . My tip is to get the room on the 3rd floor . Very quiet.. I can't wait to have another getaway .. :)More</t>
   </si>
   <si>
+    <t>Patricia P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r220759909-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -1737,6 +1965,9 @@
     <t>I found this to be a very nice hotel, in a quiet area. I liked the outdoor pool with fire pit. Relaxing to sit out there in the evening. The employees at the front desk were all extremely welcoming and helpful. Only problem we had is guests in another room down the hall, having an argument, slamming doors and yelling, They jarred me awake at 2 am and had little sleep after that. I called the front desk and he came immediately to put an end to that. I appreciated that, but felt because of those people, I had wasted a lot of my reward points; certainly not due to anything the hotel did. I've had this problem before at another Courtyard. Can't figure that out.More</t>
   </si>
   <si>
+    <t>994Jim</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r216881311-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -1767,6 +1998,9 @@
     <t>Rooms are very oddly designed.  Cannot find the light switches and when you find them you cannot jkeep them on.  The doors to the bathrooms are backwards and the light swirtches are behind them.  My oh my, it was tough at night.They had this cafe stykle restaurant that you went to the counter to order from, that was nice enough, not any variety at breakfast, so would haev liked to be able to order ala carte.  I never stayed up late enough, but i heard the restaurant stayed oepn till 10, so tha tis nice</t>
   </si>
   <si>
+    <t>Brix510</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r213841489-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -1788,6 +2022,9 @@
     <t>This hotel was very well kept and clean.  The service was good and the property was much nicer than your average Courtyard Marriott.  The proximity to shopping centers, restaurants, and the beaches in Torrance, Palos Verdes, Redondo and other south bay beaches make this hotel very convenient.  Would definitely stay here again.More</t>
   </si>
   <si>
+    <t>SuzieeQQ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r210651021-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -1815,6 +2052,9 @@
     <t>I occasionally have to travel to Torrance/Redondo Beach and have found that very few hotels in the area offer rooms with 2 Queen beds.  Usually either a King or a 2 double bed room is the only option.  Last week I searched at least 30 hotels and came up with only 5 that had the 2 queen beds (needed as we are a family of 2 adults and 2 kids)---this Courtyard was one of those I found and I'm glad I did.  Good, safe, well landscaped location, close to many restaurants (driving), and Del Amo Shopping Center (very large outdoor mall).   Hotel had free Wi-Fi that was easy to use and an excellent signal, free/plentiful parking, rooms were large, in excellent shape, lovely bed linens, in a quiet area.  Very small fridge in room--nice to have.Breakfast was not quite what I like, sort of a pay for what you want, self-service "bistro" with only a few options (muffins, bagels, cold cereal, and a few other things). This was well publicized, so not a surprise--but they did also have a small selection of snacks for purchase which was appreciated, plus a few computer terminals and a printer for boarding passes.  Pool looked nice.  Bistro area was nicely presented, but instead we drove down the street a 1/2 mile for a hot breakfast as we were on vacation.  We will definitely return.  $140 total for the night.More</t>
   </si>
   <si>
+    <t>ItBeMeEverywhere</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r209968655-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -1833,6 +2073,9 @@
     <t>I frequently stay at this hotel, it is conveniently located to my one of my work destinations, as well as the staff here always makes me feel like a valued guest.Whether it is Jennifer, Gloria, or any other member of the staff, they are consistent in a check-in procedure, which is always quick and friendly.When staying in this area, I don't hesitate to select this hotel; I know I will be able to comfortably complete my goals and tasks while in this area.Thank you to the entire staff.More</t>
   </si>
   <si>
+    <t>Kathleen N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r209319631-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -1851,6 +2094,9 @@
     <t>We needed to stay relatively close to San Pedro.  Since I had previously lived in Torrance and knew the area we decided on this hotel.  From check-in to check-out everyone was super nice and helpful.  When we checked in Gloria helped us.  I told her I had not been able to get any discounts when booking and that we were not there for pleasure.  (It was for a memorial service for a family member.)  She was able to arrange a discount that was to our satisfaction.  When I had a problem using my key card in the door to my room I went back to tell her and she personally came back to my room with me to help.  The room was spacious, quiet and very clean.  Besides Gloria there were also Ruby, Karen, Erika and Jennifer who were always very friendly and attentive.  Now to the Bistro.  The breakfasts were good with healthy options as well as bacon and eggs, and the burger I had for dinner was tasty.  However, I did purchase the $20 per day (for two people) breakfast option and from the math I did It would have probably been less expensive to purchase the breakfasts outright, at least at this hotel.  The first time I walked into the Bistro I was greeted by Stephanie who had the most welcoming smile on her face as if she were greeting a treasured friend or a customer who...We needed to stay relatively close to San Pedro.  Since I had previously lived in Torrance and knew the area we decided on this hotel.  From check-in to check-out everyone was super nice and helpful.  When we checked in Gloria helped us.  I told her I had not been able to get any discounts when booking and that we were not there for pleasure.  (It was for a memorial service for a family member.)  She was able to arrange a discount that was to our satisfaction.  When I had a problem using my key card in the door to my room I went back to tell her and she personally came back to my room with me to help.  The room was spacious, quiet and very clean.  Besides Gloria there were also Ruby, Karen, Erika and Jennifer who were always very friendly and attentive.  Now to the Bistro.  The breakfasts were good with healthy options as well as bacon and eggs, and the burger I had for dinner was tasty.  However, I did purchase the $20 per day (for two people) breakfast option and from the math I did It would have probably been less expensive to purchase the breakfasts outright, at least at this hotel.  The first time I walked into the Bistro I was greeted by Stephanie who had the most welcoming smile on her face as if she were greeting a treasured friend or a customer who she had seen many times before.  (This was my first time there.)  The other ladies at the Bistro were equally welcoming.  They were Sudavi, Zahi (spelling?) and Veronica.  When I ate breakfast at home this morning I missed them!  This is a very good place to stay in the South Bay area, with easy access to the freeways.More</t>
   </si>
   <si>
+    <t>89shaikhz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r203382070-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -1878,6 +2124,9 @@
     <t>Location. Staff. Cleanliness. Just about everything was perfect. The check in was quick. The breakast was up too the mark. Just a small request,  extend your bar timings till at least 12. Even at the day of checkout,  they extended my time till 2pm without any extra charge :) Will definitely stay here again. Thank you. More</t>
   </si>
   <si>
+    <t>IndyOne</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r201606770-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -1896,6 +2145,9 @@
     <t>I stayed here for two nights.  The staff was friendly and helpful.  I arrived early and fortunately they had an open room and allowed me to check in early.  The room was average size.  My room was not on the courtyard, but instead looking out at the parking lot.  However, even the parking area is quiet and peaceful with large trees and a fence to mask the surrounding area.  The hotel was about 11 miles from LAX.  The hotel is also close to the Del Amo Fashion mall.  There are numerous eating places there.  The Courtyard does not have free breakfast.  The courtyard area and grounds were well landscaped and attractive.  Wifi in the rooms worked fine.  Parking was free and not a problem.More</t>
   </si>
   <si>
+    <t>FLGHOCKEY</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r200695271-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -1920,6 +2172,9 @@
     <t>Clean, comfortable rooms, plenty of space to relax and close to everything.Those are the good things about this location.  The GREAT thing about this Courtyard is the staff.  You will always be welcomed by a friendly face with a warm smile.   The staff is what really makes this location the only hotel that I use when in the LA area(I am there 2-3 weeks per month)More</t>
   </si>
   <si>
+    <t>gpallod</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r196729920-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -1944,6 +2199,9 @@
     <t>Neat &amp; clean rooms, Comfortable beds. Convenient location for out of LA. Perfect for driving to Venice, DisneyLands, Santa Monica. Parking was free. No breakfast was included. The staff was very cooperative. Swiming pool was average.  we stayed here from August 8th to August 11th 2013.More</t>
   </si>
   <si>
+    <t>Milan L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r195920110-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -1965,6 +2223,9 @@
     <t>I like this hotel and I stay in it quite often on my biz trips.It is nice, modern, location is very good, service as well...But there are some serious flaws - sound insulation between the rooms is very poor! You can even hear when the A/C turns on in the adjacent rooms! Also, probably is time to replace carpets in the rooms.The worst thing is definitely breakfast as there is almost nothing - just eggs on a few different ways, including in sandwiches, some fruits etc... Although it is included in my rate, I eat there very seldom.More</t>
   </si>
   <si>
+    <t>HotelSavy90504</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r194004663-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -1992,6 +2253,9 @@
     <t>Let me first start out by saying that the Front Desk team is AWESOME! I don't remember everybody's names - but those girls that tend to work the afternoons/evenings are the best. We have stayed there many many times while we were in between homes. Mariana, I think her name is, sets us up in our favorite room (or close to it if it's not available) every time. One morning, I was in the lobby and visually tired, she gave me a complimentary coffee card to use at their Bistro. Another time, one of the other girls was just creating conversation while I warmed up my left overs in their lobby microwave. It's the little things like that that make you feel at home. Yay, Courtyard on Sepulveda!More</t>
   </si>
   <si>
+    <t>wholehogbrew</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r188410640-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -2013,6 +2277,9 @@
     <t>Our team stayed here for a week and were treated great.  Desiree was my first contact and she checked me in cheerfully and efficiently on Sunday.  The room was clean, roomy, and comfortable.  My only complaint was the refrigerator was too small and could barely fit a half gallon of milk if you squeezed the sides.On Monday I went to work and when I returned, housekeeping had not visited my room.  I went to the front desk and requested a couple bath towels.  A half hour later someone showed up at my door with a full set of towels.  Oh... the towels were not the fluffy Marriott towels I am used to.  They had a Marriott tag but they were rough and thin.On Tuesday I came back to two bottles of conditioner and no shampoo.  I found a housekeeping staff in the hall who gave me two bottles of shampoo.On Wednesday I was told that our meeting room would not be available to us on Thursday.  They offered a suite to us as a meeting room for free.  That works!!!  I discovered the refrigerator in a suite is decent size and will hold a gallon of milk.Overall this was a good stay.  A few more glitches than normal but the staff took care of them.More</t>
   </si>
   <si>
+    <t>mswiseguy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r187234469-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -2028,6 +2295,9 @@
     <t>This property is located very close to my home office so is extremely convenient when I have to visit.  I've always found the staff to be very friendly and accomodating.  I have found that if you are staying in the summer and want a quieter room, request towards the back of the property - and not facing the courtyard/pool which can get noisy (particularly if it is warm).  There is food on the premises - which is convenient if you want breakfast and a light dining menu.  It is convenient if you have business or relatives close by - but really need a car to get anywhere.</t>
   </si>
   <si>
+    <t>batmik</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r186638735-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -2044,6 +2314,9 @@
   </si>
   <si>
     <t>November 2013</t>
+  </si>
+  <si>
+    <t>BikeLike</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r183182865-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
@@ -2068,6 +2341,9 @@
 In summary, I do not recall using an agent to make the reservation since I went directly to the Marriott site from the TripAdvisor listing. I asked them what alleged agency was responsible for the billing and they could not tell me. I don't believe I would agree to a discount for only the first day out of ten. If that did happen, I believe that someone on receiving end would certainly catch it...The facilities of this hotel were very good, comfortable and clean. The setting was very good for us as we were not too far from my grandchildren ... and there were decent restaurants nearby. These were needed because breakfast was not included. I recommend staying there ... but with the following caution.We were there 10 days and I made the reservation based on information on TripAdvisor. The daily rate was $160 (round numbers) but I applied for a senior discount, which would bring that down to 144 per day. When we checked out, the invoice given to me included the senior discount rate for the first day only! We were billed about 152 for each of the following 9 days. I called the hotel when we got home a week later and was told that since I made the reservation through a "travel agency", Marriott was not able to correct the situation. The net result was a bill that was about $86 higher than expected. In summary, I do not recall using an agent to make the reservation since I went directly to the Marriott site from the TripAdvisor listing. I asked them what alleged agency was responsible for the billing and they could not tell me. I don't believe I would agree to a discount for only the first day out of ten. If that did happen, I believe that someone on receiving end would certainly catch it as a possible typo ... and, if ethical, make the correction. In summary, during our 30-day, 7300- mile coast-to coast, driving tour, the was the ONLY time the above was encountered. We stayed at other famous hotel chains ... Drury, Hampton and DoubleTree ... and several independant hotels without any problems regarding reservations or billing.More</t>
   </si>
   <si>
+    <t>mah10000</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r179133711-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -2095,6 +2371,9 @@
     <t>The rooms are nice and very comfortable. The location is very good, just across the street from the mall with lots of restaurants nearby. It is a hotel to recommend, good for families and business travelers.More</t>
   </si>
   <si>
+    <t>theTraveler0626</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r175808516-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -2119,6 +2398,9 @@
     <t>We only stayed for 1 night. The room was clean and comfortable.  It's not that close to the airport as i thought but it is very close to a big shopping mall.  I would recommend this to friends and family.  I will definitely come back to this hotel.More</t>
   </si>
   <si>
+    <t>StockholmAnders</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r170154511-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -2137,6 +2419,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>HEC140</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r165257747-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -2152,6 +2437,9 @@
     <t>We returned for our grandsons birthday and baptism.  It has not changed at all.  Still an excellent value.  Good that we had reservations, since it was quite full.  Service very good. We needed a last minute room for our older son, but they squeezed him in. Good breakfasts. I recommend the oatmeal.  Liitle cool during our stay this time, but we checked out the nice pool. Others were using it, not us.An excellent value for most travelers, close to all sorts of shops.</t>
   </si>
   <si>
+    <t>CarpeDiem45</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r162740019-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -2179,6 +2467,9 @@
     <t>Generally, we love this Courtyard having spent many nights here through the years. We recognized the facility was getting a bit seeded but we didn't complain because of the other benefits.  Now things have changes, some plusses and some negatives.  You can judge what impacts you the most. Pluses - good location for us, recent renovations are nice, nice staff always available, appropriately organized for business and leisure and technology helpful for getting boarding passes.  Negative -  No longer free Starbucks Coffee in the lobby for guests but instead you can buy it at the "restaurant," they have removed the whirlpool near the pool for some unknown reasons the staff could not even figure out, but, worst of all, was the quality of the wireless signal.  For the first 4 days we stayed, the wireless signal would remain on for about 5 minutes, if you could get it at all, then stopped.  When we mentioned it daily to the various staff, some told us that they would call the engineer immediately and would get back to us with the conditions. (of course, that never happened.)  One staff member even said, "it had not worked properly for 5-6 months."  So I stopped believing and went out and purchased a $100 hotspot for our use. Near the end of our stay I believed it started to work better but with the wireless world today, getting a room and not having wireless available...Generally, we love this Courtyard having spent many nights here through the years. We recognized the facility was getting a bit seeded but we didn't complain because of the other benefits.  Now things have changes, some plusses and some negatives.  You can judge what impacts you the most. Pluses - good location for us, recent renovations are nice, nice staff always available, appropriately organized for business and leisure and technology helpful for getting boarding passes.  Negative -  No longer free Starbucks Coffee in the lobby for guests but instead you can buy it at the "restaurant," they have removed the whirlpool near the pool for some unknown reasons the staff could not even figure out, but, worst of all, was the quality of the wireless signal.  For the first 4 days we stayed, the wireless signal would remain on for about 5 minutes, if you could get it at all, then stopped.  When we mentioned it daily to the various staff, some told us that they would call the engineer immediately and would get back to us with the conditions. (of course, that never happened.)  One staff member even said, "it had not worked properly for 5-6 months."  So I stopped believing and went out and purchased a $100 hotspot for our use. Near the end of our stay I believed it started to work better but with the wireless world today, getting a room and not having wireless available is like not having a mattress.  Given that I have enjoyed this facility often and am a dedicated Marriott customer, I regret that management fails to resolve this simple wireless problem and, in addition, takes away guest facilities that I alway found well used and appreciated.  For you non-Marriott fans, I can assure you that Marriott is generally better than this and I am hopeful that they will improve this facility.More</t>
   </si>
   <si>
+    <t>christineo_sd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r151644557-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -2206,6 +2497,9 @@
     <t>Staff was very friendly and helpful. Not great but ok for a business trip. Gym was small but they are expanding it. Rooms, bed, desk and chair comfortable enough.  Walls were thin though, I could hear the neighbors coffee pot like it was in my room and the traffic from the road enen though I was toward the back.More</t>
   </si>
   <si>
+    <t>Larry T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r150327556-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -2227,6 +2521,9 @@
     <t>Used this place on a drive-by basis on a recent business trip to the South Bay. On a weekend the place was quiet and the staff had plenty of time for any request. If I need to be in this area again I'll likely stay here again.More</t>
   </si>
   <si>
+    <t>bmttokyo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r147886074-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -2248,6 +2545,9 @@
     <t>Stayed here over the Thanksgiving week.  Initially stayed for an overnight retreat.  Conference room facilities adequate, accommodations were clean, bed was comfortable. Front desk support was efficient, friendly &amp; professional.Liked our arrangements so much that opted to stay here instead of family.  Rates were excellent as well for a last minute arrangements. The public areas were very fresh &amp; modern looking.  There was plenty of room for the conferees to meet at.Rate did not include breakfast but usually woke up too late so this was not a problem.Fitness center machines were limited but thankfully there was only one other user during my times there.Excellent South Bay option for our future trips !More</t>
   </si>
   <si>
+    <t>lesiel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r143437826-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -2275,6 +2575,9 @@
     <t>Have been visiting this courtyard for over 10 years when visiting family. It has a great location with everything a traveler would need but the rooms need refurbishing.  The sofa in our room was broken down and dirty, none of the colors for the upholstery go together, the desk area/dresser need cleaning from all the oily fingerprints and the towels felt old and worn. Just felt grimy. They tout their newly refurbished lobby but really, who sleeps there? Delayed maintenance has caught up with them. I expect more from Courtyard.More</t>
   </si>
   <si>
+    <t>sad69</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r137630738-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -2302,6 +2605,9 @@
     <t>We stayed here for one night on a Friday while passing through on a drive up to Canada and felt it was a pretty average Courtyard with an updated lobby and courtyard area, but rooms still had the old Courtyard decor (still clean and comfortable).Safe area and the service was nice -- having heard about Crenshaw Blvd from some 80's and 90's rap songs, this was in the nicer area and so there's no safety concerns.Only major issue is the thinness of the windows in the rooms, we were on the top floor overlooking the courtyard / swimming pool and I'm not sure if the kids playing in the pool were just that loud and the water that hard, but it was as if we were right there next to the pool! Good acoustics from that perspective but not what you want if you're taking a nap after a long drive...One restaurant recommendation: Gyu-Kaku. Short drive south from the hotel and they have an excellent happy hour.More</t>
   </si>
   <si>
+    <t>passportpleasePH</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r128150682-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -2320,6 +2626,9 @@
     <t>The rooms are clean and comfortable. However, the front desk service isn't as good, the man isn't approachable. Not only that, the most disappointing part is the food and beverage bar right across the front desk. I ordered sausages and scrambled eggs on the 2nd week of April before we left for our 4-day Pacific Coast trip. After our trip on the weekend of that same week, we checked in again at Marriott Courtyard. My mom orders sausages and sunny side up eggs to go. She opened her box and saw she was given beef steak and scrambled eggs instead of what she ordered. My mom is a Buddhist so she doesn't eat beef. She went back to the bar to complain and the waitress said that the beef steak IS the sausage she ordered. We are not stupid, we know what sausages and beef steak look like. My mom just threw her food in the trash. More</t>
   </si>
   <si>
+    <t>Hernandezmm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r124020791-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -2335,6 +2644,9 @@
     <t>The hotel is very clean and very nice.  The food is great.  Excellent hotel.</t>
   </si>
   <si>
+    <t>coldwatersurfgirl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r123870515-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -2356,6 +2668,9 @@
     <t>We've stayed at this Courtyard on several occasions since it is located just around the corner from my aunt and uncle's home. It is always clean and the service is usually friendly and helpful. We've had some difficulty getting a crib to the room in a timely manner, and they do not have sheets fitted for the pack'n'plays like some Courtyards do. However, overall, for a basic overnight, the stay at this Courtyard is generally great.It is located very close by to King's Hawaiian restaurant which is great for breakfast and dinner. They have pastries/donuts and coffee available in their bakery display or a sit down breakfast, lunch or dinner for basic hawaiian fare. The hotel is also nearby to Del Amo mall and a movie theater.More</t>
   </si>
   <si>
+    <t>Karetomuch</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r123695542-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -2374,6 +2689,9 @@
     <t>January 2012</t>
   </si>
   <si>
+    <t>princesitaazteca</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r118834063-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -2392,6 +2710,9 @@
     <t>Don't think twice and stay elsewhere! Two nights in a room I experienced excessive noise from other "guests" along with banging doors. Front desk staff at night was not helpful at all. Asked to move rooms only to have more of the same noise and trouble with front desk. When I asked about their policy on noise they said they allowed it until 11pm!? I remimded them it was 12:30 am and staff responded, "oh really?" Ugh! I never had such an experience w/the Marriott hotels, but with the lack of responsiveness to valid issue I am shredding my member card &amp; seeking alternate chain for business and personal travel.More</t>
   </si>
   <si>
+    <t>KKinCali</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r118632714-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -2413,6 +2734,9 @@
     <t>A friend and I stayed here one night to attend a wedding, and there was nothing here to complain about. The lobby and rooms seem to have been updated recently, and the lobby has a cafe and a little store where you can buy snacks. The room was nice, and had a small balcony, and free wireless service - for $100, we were very pleased. We definitely heard other people through the walls, but noise was muffled, and it wasn't anything to keep up awake at night. We did not use the pool area at all due to our limited stay, but I would bet that it is at least comfortable like the rest of the hotel. Nothing luxurious, but the hotel has everything you need.More</t>
   </si>
   <si>
+    <t>GVRBill</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r117723331-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -2426,6 +2750,9 @@
   </si>
   <si>
     <t>Pretty decent for the money (generally around $100/night or less).  The main issue is noise - they allow guests to use the pool until 11 PM (fine), but also allow them to yell as much as they want until 11 PM (not fine).  Not a place I'd stay at for business.</t>
+  </si>
+  <si>
+    <t>AlinDenver</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r115216233-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
@@ -2457,6 +2784,9 @@
 Having been a loyal customer of the Marriott chain for years, I haven't had any bad experience until I...The location being in Torrance (toney Palos Verdes is miles away but obviously dragged into the designation of this Courtyard),  beware of weekend clientele in this hotel.   It was very obvious that  this hotel  is the choice of those on a motel 6 budget  but desirous of going "upmarket".   Those used to the usual Marriott experience in a Courtyard property should be warned.Strong industrial grade disinfectant greeted my entrance to my room.  While it is nice to know that cleaning was done, one can't help but imagine what could have possibly occurred in the room.  The folks that I saw on my way to the room could offer some hint.The bed looks like a Courtyard bed.  That is as far as it goes.   The limp  mattress (far from firm) strongly suggests cheap and highly discounted quality.  The sheets are sandpaper rough --   so unlike other Courtyard properties I have experienced.I overheard the front office clerk, Jennifer  (she claims to be a manager) gave another  guest 2:30 pm  late checkout.   As a Marriott gold member, I figured I should also ask of for one.   Only to be told that she is can only allow until 1PM for gold and platinum members -- obviously a lie based on what I have heard her offer the other guest ahead of me.   Having been a loyal customer of the Marriott chain for years, I haven't had any bad experience until I made the bad choice of picking this property for a 1 night stay because of a cheap rate.  Indeed, my experience was a double whammy of cheap rate and cheap hotel.More</t>
   </si>
   <si>
+    <t>Tessa35</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r113169931-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -2475,6 +2805,9 @@
     <t>May 2011</t>
   </si>
   <si>
+    <t>SkipperB</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r109405198-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -2493,6 +2826,9 @@
     <t>The room and lobby appeared to be recently refurbished. Looked fresh and modern. The carpet in our room (which was very spacious even with two queen beds, by the way) was clean, there were plenty of pillow, I appreciated the mini-fridge, and we had a fairly quiet night - - other than a few loud people who were talking as they were waiting for the elevators, which were right across from our room. We faced the inner courtyard/pool/garden area and had a balcony which was nice.Parking was fine, we have a large SUV and didn't find it to be too tight. And we appreciated the convenience of the side entry into the hotel...just steps from where we parked.The only drawback to CY by Marriott is they seldom seem to include breakfast. So many of the other similar chains (Hampton Inn, Holiday Inn Express, etc.) DO include a breakfast of some sort. It would be nice if they jumped on the bandwagon.More</t>
   </si>
   <si>
+    <t>Donna1419</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r76700653-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -2511,6 +2847,9 @@
     <t>August 2010</t>
   </si>
   <si>
+    <t>mbhill62</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r56939612-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -2529,6 +2868,9 @@
     <t>February 2010</t>
   </si>
   <si>
+    <t>BienVago</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r55060694-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -2547,6 +2889,9 @@
     <t>September 2009</t>
   </si>
   <si>
+    <t>Bennn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r29270704-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -2566,6 +2911,9 @@
   </si>
   <si>
     <t>Room is reliable and clean, and its location is convenient for my purposes. Front desk staff is very pleasant (but one of them mixes up left and right). Security is good. Air quality is good (this can be a problem in L.A. as you know)The only problem is that almost nothing is walkable from here - only a park, a Kings Hawaiian (pretty good), and a French/Korean bakery (delicious) and a Target and Madrona Marsh. Driving is convenient, but I've seen some car crashes when a driver sticks his nose out the driveway. Sepulveda has no shoulder and fast moving cars and few signals where it's safe to cross. Drive, don't walk, here.More</t>
+  </si>
+  <si>
+    <t>4MI</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r8475644-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
@@ -2597,6 +2945,9 @@
  The next morning we started with breakfast. The food was not...We booked a king suit for 2 adults and 5 years old for 3 nights on July 2007 directly with hotel two days in advanced.We arrived for check-in at 3:30pm. Our VERY SMALL room next to the vending/ice machine was ready. But  no microwave, no fridge inside  even though it was promised at the time we booked a room. We were driving long way so decided to have a rest right away. Sofa bed was not made (no bedding at all!) and we found just one pillow in the closet (no blanket either). Called the reception and were told to check the shelves under the TV stand. Finally we found a bedding but it was WET! Called reception and ask about dry bedding, extra pillow and blanket and started unpack. At 4:30pm I went to reception with wet bedding to ask what’s going on. The receptionist was surprised that I still did not get anything. She called housekeeping and I was told that the bedding waiting to be dry…even without a usual “Sorry about that!”Same night when we returned to the hotel we found bedding on the sofa bed. It still was not made! I can not sleep well because of the lack of refrigerators people went for ice late nights and early mornings. And this ice machine (which was next to my door) makes unforgettable sound. The next morning we started with breakfast. The food was not fresh, the potato was spicy, and so our 5 years old refuse to eat it.  No fresh fruits except bananas. To find a one CLEAN teaspoon you have to check at least 5 of them. Glasses with a chip. At the end of our breakfast we got a check to pay for the breakfast. That was first time when we book hotel with a breakfast and have to pay for it! For the $12 they priced for the breakfast per person, you can find a better place to eat just a block away.If you add the hole on the shades, tiny room and luck of the management, you would agree this is not the place you would love to spend nights.More</t>
   </si>
   <si>
+    <t>jazz2591</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r6840042-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -2615,6 +2966,9 @@
     <t>I will start by saying the room was spacious. The vanity area was small but the room made up for that. Very nice location. I could tell the hotel took pride in the landscaping which was very good. The location is excellent. Anything that you want is within 5 miles i.e; banking, shopping, eating , etc. This hotel offers a breakfast buffet daily for $12.95 per day. We only ate their one time because it was complimentary for one day because housekeeping forgot to clean our room. So the three of us received breakfast for free. There were a couple of bad points but the good ones out weighed the bad ones. One bad point was that we had a room on the first floor so whenever someone had the room above us we could hear every step that they took. which became annoying. Will never book a room on the first floor again. The beds are very, very, very comfortable. The only reason why I would not use this hotel again is because it is south of the city and everything that we did was on the north side (Beverly Hills, Hollywood, Inglewood, Downtown L.A.) of the city. On the average you are looking at a 30 min. drive without traffic. Out of the five days that we were there, we experienced traffic 1 time on the freeway. That was when we were leaving Downtown L.A. on the 101...I will start by saying the room was spacious. The vanity area was small but the room made up for that. Very nice location. I could tell the hotel took pride in the landscaping which was very good. The location is excellent. Anything that you want is within 5 miles i.e; banking, shopping, eating , etc. This hotel offers a breakfast buffet daily for $12.95 per day. We only ate their one time because it was complimentary for one day because housekeeping forgot to clean our room. So the three of us received breakfast for free. There were a couple of bad points but the good ones out weighed the bad ones. One bad point was that we had a room on the first floor so whenever someone had the room above us we could hear every step that they took. which became annoying. Will never book a room on the first floor again. The beds are very, very, very comfortable. The only reason why I would not use this hotel again is because it is south of the city and everything that we did was on the north side (Beverly Hills, Hollywood, Inglewood, Downtown L.A.) of the city. On the average you are looking at a 30 min. drive without traffic. Out of the five days that we were there, we experienced traffic 1 time on the freeway. That was when we were leaving Downtown L.A. on the 101 south heading back to Torrance but the carpool lane really helped out with that. The hotel is located about 3-5 miles from Del Amo Mall which is a bigger than it looks. I highly recommend trying Lucille's. It is B.B King's restaurant which is on Hawthorne Blvd about 1-2 miles north of Del Amo Mall. Just passed Barnes and Nodles if travelling northbound. I would definitely recommend this hotel to anyone. If you do not like Del Amo Mall, there is another mall about 3 miles north on the opposite side of Hawthorne Blvd that is about the same size as Del Amo if not bigger. If I remember correctly I think the name of it is the South Bay Galleria.More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r4093946-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -2630,6 +2984,9 @@
     <t>This stay was from 11/4/05 to 11/7/05:Very clean, large rooms with large bathrooms, new beds, pillows and linens, very friendly and helpful staff, and a safe, central location near resturants and shopping.PERFECT!</t>
   </si>
   <si>
+    <t>nchamp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r3337329-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
   </si>
   <si>
@@ -2646,6 +3003,9 @@
   </si>
   <si>
     <t>My family and I stayed at this Courtyard, and I was somewhat disappointed. The rooms seemed clean and well maintained, but it was very noisy. Apparently there was a group of men who were part of a bachelor party staying at the hotel. They were a well behaved bunch, but there was a lot of traffic in the hallway all night long. They really were not loud, but I could understand every word they said--even when they were in the room next door! Again, they were NOT loud and rowdy. The walls were very thin!We had also asked for two connecting rooms and they were not able to accomodate us when we got there. I think they should have been able to tell us this when we booked the rooms. I would probably have stayed elsewhere.More</t>
+  </si>
+  <si>
+    <t>archippus</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d82344-r3325596-Courtyard_Los_Angeles_Torrance_Palos_Verdes-Torrance_California.html</t>
@@ -3165,43 +3525,47 @@
       <c r="A2" t="n">
         <v>26502</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>133161</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -3213,56 +3577,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>26502</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>133162</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="n">
         <v>4</v>
@@ -3280,56 +3648,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>26502</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>133163</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P4" t="n">
         <v>4</v>
@@ -3349,50 +3721,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>26502</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>133164</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="O5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P5" t="n">
         <v>4</v>
@@ -3412,50 +3788,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>26502</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>41174</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="L6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="O6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -3475,50 +3855,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>26502</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>133165</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="J7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="L7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>89</v>
       </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>84</v>
-      </c>
       <c r="O7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -3538,50 +3922,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>26502</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>133166</v>
+      </c>
+      <c r="C8" t="s">
+        <v>97</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="J8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="K8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="L8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="O8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P8" t="n">
         <v>4</v>
@@ -3599,50 +3987,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>26502</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>104</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="K9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="L9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="O9" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3654,56 +4046,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="X9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="Y9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>26502</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>115648</v>
+      </c>
+      <c r="C10" t="s">
+        <v>114</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="J10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="K10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="L10" t="s">
+        <v>119</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
         <v>110</v>
       </c>
-      <c r="M10" t="n">
-        <v>4</v>
-      </c>
-      <c r="N10" t="s">
-        <v>102</v>
-      </c>
       <c r="O10" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="n">
@@ -3721,50 +4117,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>26502</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>18650</v>
+      </c>
+      <c r="C11" t="s">
+        <v>120</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="J11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="K11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="L11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="O11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P11" t="n">
         <v>2</v>
@@ -3784,50 +4184,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>26502</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>133167</v>
+      </c>
+      <c r="C12" t="s">
+        <v>128</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="L12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="O12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
@@ -3847,50 +4251,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>26502</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>111934</v>
+      </c>
+      <c r="C13" t="s">
+        <v>136</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="J13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="K13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="L13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="O13" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3904,50 +4312,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>26502</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>133168</v>
+      </c>
+      <c r="C14" t="s">
+        <v>142</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="J14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="K14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="L14" t="s">
+        <v>147</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
         <v>134</v>
       </c>
-      <c r="M14" t="n">
-        <v>4</v>
-      </c>
-      <c r="N14" t="s">
-        <v>123</v>
-      </c>
       <c r="O14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3961,50 +4373,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>26502</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>11477</v>
+      </c>
+      <c r="C15" t="s">
+        <v>149</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="J15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="K15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="L15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="O15" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
@@ -4022,56 +4438,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="X15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="Y15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>26502</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>133169</v>
+      </c>
+      <c r="C16" t="s">
+        <v>159</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="J16" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="K16" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="L16" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="O16" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -4085,50 +4505,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>26502</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>133170</v>
+      </c>
+      <c r="C17" t="s">
+        <v>165</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="J17" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="K17" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="L17" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="O17" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="n">
@@ -4148,50 +4572,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>26502</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>133171</v>
+      </c>
+      <c r="C18" t="s">
+        <v>172</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="J18" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="K18" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="L18" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="O18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -4205,50 +4633,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>26502</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>42537</v>
+      </c>
+      <c r="C19" t="s">
+        <v>180</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="J19" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="K19" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="L19" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="M19" t="n">
         <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="O19" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -4260,56 +4692,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="X19" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="Y19" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>26502</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>12756</v>
+      </c>
+      <c r="C20" t="s">
+        <v>190</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="J20" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="K20" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="L20" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="O20" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -4329,50 +4765,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>26502</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>133172</v>
+      </c>
+      <c r="C21" t="s">
+        <v>197</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="J21" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="K21" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="L21" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="O21" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -4390,50 +4830,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>26502</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>133173</v>
+      </c>
+      <c r="C22" t="s">
+        <v>204</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="J22" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="K22" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="L22" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="O22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P22" t="n">
         <v>4</v>
@@ -4453,50 +4897,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>26502</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>133174</v>
+      </c>
+      <c r="C23" t="s">
+        <v>210</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="J23" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="K23" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="L23" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="O23" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="n">
@@ -4514,56 +4962,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="X23" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="Y23" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>26502</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>133175</v>
+      </c>
+      <c r="C24" t="s">
+        <v>220</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="J24" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="K24" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="L24" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="O24" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -4583,50 +5035,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>26502</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>133176</v>
+      </c>
+      <c r="C25" t="s">
+        <v>226</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="J25" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="K25" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="L25" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="O25" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -4644,50 +5100,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>26502</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>133177</v>
+      </c>
+      <c r="C26" t="s">
+        <v>232</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="J26" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K26" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="L26" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="O26" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="n">
@@ -4707,50 +5167,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>26502</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>320</v>
+      </c>
+      <c r="C27" t="s">
+        <v>239</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="J27" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="K27" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="L27" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="O27" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4764,50 +5228,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>26502</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>133178</v>
+      </c>
+      <c r="C28" t="s">
+        <v>246</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="J28" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="K28" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="L28" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="O28" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4825,50 +5293,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>26502</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>115556</v>
+      </c>
+      <c r="C29" t="s">
+        <v>252</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="J29" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="K29" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="L29" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="O29" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4886,50 +5358,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>26502</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>133179</v>
+      </c>
+      <c r="C30" t="s">
+        <v>259</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="J30" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="K30" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="L30" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="O30" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4943,50 +5419,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>26502</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>2710</v>
+      </c>
+      <c r="C31" t="s">
+        <v>266</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="J31" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="K31" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="L31" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="O31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -5000,50 +5480,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>26502</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>133180</v>
+      </c>
+      <c r="C32" t="s">
+        <v>273</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="J32" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="K32" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="L32" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="O32" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -5061,50 +5545,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>26502</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>133181</v>
+      </c>
+      <c r="C33" t="s">
+        <v>280</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="J33" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="K33" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="L33" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c r="O33" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P33" t="n">
         <v>3</v>
@@ -5124,50 +5612,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>26502</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>133182</v>
+      </c>
+      <c r="C34" t="s">
+        <v>287</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="J34" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="K34" t="s">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="L34" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="O34" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P34" t="n">
         <v>4</v>
@@ -5185,50 +5677,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>260</v>
+        <v>293</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>26502</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>5223</v>
+      </c>
+      <c r="C35" t="s">
+        <v>294</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>261</v>
+        <v>295</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>262</v>
+        <v>296</v>
       </c>
       <c r="J35" t="s">
-        <v>263</v>
+        <v>297</v>
       </c>
       <c r="K35" t="s">
-        <v>264</v>
+        <v>298</v>
       </c>
       <c r="L35" t="s">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c r="O35" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -5248,50 +5744,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>265</v>
+        <v>299</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>26502</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>17938</v>
+      </c>
+      <c r="C36" t="s">
+        <v>300</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
       <c r="J36" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="K36" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="L36" t="s">
-        <v>270</v>
+        <v>305</v>
       </c>
       <c r="M36" t="n">
         <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="O36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P36" t="n">
         <v>2</v>
@@ -5309,56 +5809,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="X36" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="Y36" t="s">
-        <v>274</v>
+        <v>309</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>26502</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>133183</v>
+      </c>
+      <c r="C37" t="s">
+        <v>310</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>276</v>
+        <v>312</v>
       </c>
       <c r="J37" t="s">
-        <v>277</v>
+        <v>313</v>
       </c>
       <c r="K37" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="L37" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="O37" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -5378,50 +5882,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>26502</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>133184</v>
+      </c>
+      <c r="C38" t="s">
+        <v>316</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="J38" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="K38" t="s">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="L38" t="s">
-        <v>284</v>
+        <v>321</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>285</v>
+        <v>322</v>
       </c>
       <c r="O38" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -5441,50 +5949,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>284</v>
+        <v>321</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>26502</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>133185</v>
+      </c>
+      <c r="C39" t="s">
+        <v>323</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>286</v>
+        <v>324</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>287</v>
+        <v>325</v>
       </c>
       <c r="J39" t="s">
-        <v>288</v>
+        <v>326</v>
       </c>
       <c r="K39" t="s">
-        <v>289</v>
+        <v>327</v>
       </c>
       <c r="L39" t="s">
-        <v>290</v>
+        <v>328</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>285</v>
+        <v>322</v>
       </c>
       <c r="O39" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -5502,50 +6014,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>291</v>
+        <v>329</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>26502</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>6294</v>
+      </c>
+      <c r="C40" t="s">
+        <v>330</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>292</v>
+        <v>331</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>293</v>
+        <v>332</v>
       </c>
       <c r="J40" t="s">
-        <v>294</v>
+        <v>333</v>
       </c>
       <c r="K40" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="L40" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>285</v>
+        <v>322</v>
       </c>
       <c r="O40" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -5563,41 +6079,45 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>26502</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>18228</v>
+      </c>
+      <c r="C41" t="s">
+        <v>337</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>298</v>
+        <v>338</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>299</v>
+        <v>339</v>
       </c>
       <c r="J41" t="s">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="K41" t="s">
-        <v>301</v>
+        <v>341</v>
       </c>
       <c r="L41" t="s">
-        <v>302</v>
+        <v>342</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
@@ -5616,50 +6136,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>303</v>
+        <v>343</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>26502</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>133186</v>
+      </c>
+      <c r="C42" t="s">
+        <v>344</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>304</v>
+        <v>345</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>305</v>
+        <v>346</v>
       </c>
       <c r="J42" t="s">
-        <v>306</v>
+        <v>347</v>
       </c>
       <c r="K42" t="s">
-        <v>307</v>
+        <v>348</v>
       </c>
       <c r="L42" t="s">
-        <v>308</v>
+        <v>349</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>309</v>
+        <v>350</v>
       </c>
       <c r="O42" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -5677,50 +6201,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>308</v>
+        <v>349</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>26502</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>8188</v>
+      </c>
+      <c r="C43" t="s">
+        <v>351</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>310</v>
+        <v>352</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>311</v>
+        <v>353</v>
       </c>
       <c r="J43" t="s">
-        <v>312</v>
+        <v>354</v>
       </c>
       <c r="K43" t="s">
-        <v>313</v>
+        <v>355</v>
       </c>
       <c r="L43" t="s">
-        <v>314</v>
+        <v>356</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>309</v>
+        <v>350</v>
       </c>
       <c r="O43" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -5734,50 +6262,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>314</v>
+        <v>356</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>26502</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>133187</v>
+      </c>
+      <c r="C44" t="s">
+        <v>357</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>315</v>
+        <v>358</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>316</v>
+        <v>359</v>
       </c>
       <c r="J44" t="s">
-        <v>317</v>
+        <v>360</v>
       </c>
       <c r="K44" t="s">
-        <v>318</v>
+        <v>361</v>
       </c>
       <c r="L44" t="s">
-        <v>319</v>
+        <v>362</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>320</v>
+        <v>363</v>
       </c>
       <c r="O44" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P44" t="n">
         <v>4</v>
@@ -5797,50 +6329,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>319</v>
+        <v>362</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>26502</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>26414</v>
+      </c>
+      <c r="C45" t="s">
+        <v>364</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>321</v>
+        <v>365</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>322</v>
+        <v>366</v>
       </c>
       <c r="J45" t="s">
-        <v>323</v>
+        <v>367</v>
       </c>
       <c r="K45" t="s">
-        <v>324</v>
+        <v>368</v>
       </c>
       <c r="L45" t="s">
-        <v>325</v>
+        <v>369</v>
       </c>
       <c r="M45" t="n">
         <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>320</v>
+        <v>363</v>
       </c>
       <c r="O45" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -5852,56 +6388,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>326</v>
+        <v>370</v>
       </c>
       <c r="X45" t="s">
-        <v>327</v>
+        <v>371</v>
       </c>
       <c r="Y45" t="s">
-        <v>328</v>
+        <v>372</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>26502</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>133188</v>
+      </c>
+      <c r="C46" t="s">
+        <v>373</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>329</v>
+        <v>374</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>330</v>
+        <v>375</v>
       </c>
       <c r="J46" t="s">
-        <v>331</v>
+        <v>376</v>
       </c>
       <c r="K46" t="s">
-        <v>332</v>
+        <v>377</v>
       </c>
       <c r="L46" t="s">
-        <v>333</v>
+        <v>378</v>
       </c>
       <c r="M46" t="n">
         <v>2</v>
       </c>
       <c r="N46" t="s">
-        <v>320</v>
+        <v>363</v>
       </c>
       <c r="O46" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P46" t="n">
         <v>2</v>
@@ -5917,56 +6457,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>334</v>
+        <v>379</v>
       </c>
       <c r="X46" t="s">
-        <v>335</v>
+        <v>380</v>
       </c>
       <c r="Y46" t="s">
-        <v>336</v>
+        <v>381</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>26502</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>133189</v>
+      </c>
+      <c r="C47" t="s">
+        <v>382</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>337</v>
+        <v>383</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>338</v>
+        <v>384</v>
       </c>
       <c r="J47" t="s">
-        <v>339</v>
+        <v>385</v>
       </c>
       <c r="K47" t="s">
-        <v>340</v>
+        <v>386</v>
       </c>
       <c r="L47" t="s">
-        <v>341</v>
+        <v>387</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>342</v>
+        <v>388</v>
       </c>
       <c r="O47" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="n">
@@ -5986,50 +6530,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>341</v>
+        <v>387</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>26502</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>133190</v>
+      </c>
+      <c r="C48" t="s">
+        <v>389</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>343</v>
+        <v>390</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>344</v>
+        <v>391</v>
       </c>
       <c r="J48" t="s">
-        <v>345</v>
+        <v>392</v>
       </c>
       <c r="K48" t="s">
-        <v>346</v>
+        <v>393</v>
       </c>
       <c r="L48" t="s">
-        <v>347</v>
+        <v>394</v>
       </c>
       <c r="M48" t="n">
         <v>3</v>
       </c>
       <c r="N48" t="s">
-        <v>342</v>
+        <v>388</v>
       </c>
       <c r="O48" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P48" t="n">
         <v>2</v>
@@ -6045,56 +6593,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>348</v>
+        <v>395</v>
       </c>
       <c r="X48" t="s">
-        <v>349</v>
+        <v>396</v>
       </c>
       <c r="Y48" t="s">
-        <v>350</v>
+        <v>397</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>26502</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>133191</v>
+      </c>
+      <c r="C49" t="s">
+        <v>398</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>351</v>
+        <v>399</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>352</v>
+        <v>400</v>
       </c>
       <c r="J49" t="s">
-        <v>353</v>
+        <v>401</v>
       </c>
       <c r="K49" t="s">
-        <v>354</v>
+        <v>402</v>
       </c>
       <c r="L49" t="s">
-        <v>355</v>
+        <v>403</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>342</v>
+        <v>388</v>
       </c>
       <c r="O49" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="n">
@@ -6112,50 +6664,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>355</v>
+        <v>403</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>26502</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>133192</v>
+      </c>
+      <c r="C50" t="s">
+        <v>404</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>356</v>
+        <v>405</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>357</v>
+        <v>406</v>
       </c>
       <c r="J50" t="s">
-        <v>358</v>
+        <v>407</v>
       </c>
       <c r="K50" t="s">
-        <v>359</v>
+        <v>408</v>
       </c>
       <c r="L50" t="s">
-        <v>360</v>
+        <v>409</v>
       </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
       <c r="N50" t="s">
-        <v>361</v>
+        <v>410</v>
       </c>
       <c r="O50" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P50" t="n">
         <v>1</v>
@@ -6171,56 +6727,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>362</v>
+        <v>411</v>
       </c>
       <c r="X50" t="s">
-        <v>363</v>
+        <v>412</v>
       </c>
       <c r="Y50" t="s">
-        <v>364</v>
+        <v>413</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>26502</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>133193</v>
+      </c>
+      <c r="C51" t="s">
+        <v>414</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>365</v>
+        <v>415</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>366</v>
+        <v>416</v>
       </c>
       <c r="J51" t="s">
-        <v>367</v>
+        <v>417</v>
       </c>
       <c r="K51" t="s">
-        <v>368</v>
+        <v>418</v>
       </c>
       <c r="L51" t="s">
-        <v>369</v>
+        <v>419</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>370</v>
+        <v>420</v>
       </c>
       <c r="O51" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -6236,56 +6796,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>371</v>
+        <v>421</v>
       </c>
       <c r="X51" t="s">
-        <v>372</v>
+        <v>422</v>
       </c>
       <c r="Y51" t="s">
-        <v>373</v>
+        <v>423</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>26502</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>133194</v>
+      </c>
+      <c r="C52" t="s">
+        <v>424</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>374</v>
+        <v>425</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>375</v>
+        <v>426</v>
       </c>
       <c r="J52" t="s">
-        <v>376</v>
+        <v>427</v>
       </c>
       <c r="K52" t="s">
-        <v>377</v>
+        <v>428</v>
       </c>
       <c r="L52" t="s">
-        <v>378</v>
+        <v>429</v>
       </c>
       <c r="M52" t="n">
         <v>2</v>
       </c>
       <c r="N52" t="s">
-        <v>361</v>
+        <v>410</v>
       </c>
       <c r="O52" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -6297,56 +6861,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>379</v>
+        <v>430</v>
       </c>
       <c r="X52" t="s">
-        <v>380</v>
+        <v>431</v>
       </c>
       <c r="Y52" t="s">
-        <v>381</v>
+        <v>432</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>26502</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>5523</v>
+      </c>
+      <c r="C53" t="s">
+        <v>433</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>382</v>
+        <v>434</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>383</v>
+        <v>435</v>
       </c>
       <c r="J53" t="s">
-        <v>384</v>
+        <v>436</v>
       </c>
       <c r="K53" t="s">
-        <v>385</v>
+        <v>437</v>
       </c>
       <c r="L53" t="s">
-        <v>386</v>
+        <v>438</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>387</v>
+        <v>439</v>
       </c>
       <c r="O53" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -6364,50 +6932,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>386</v>
+        <v>438</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>26502</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>133195</v>
+      </c>
+      <c r="C54" t="s">
+        <v>440</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>388</v>
+        <v>441</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>389</v>
+        <v>442</v>
       </c>
       <c r="J54" t="s">
-        <v>390</v>
+        <v>443</v>
       </c>
       <c r="K54" t="s">
-        <v>391</v>
+        <v>444</v>
       </c>
       <c r="L54" t="s">
-        <v>392</v>
+        <v>445</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>387</v>
+        <v>439</v>
       </c>
       <c r="O54" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -6421,50 +6993,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>392</v>
+        <v>445</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>26502</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>1912</v>
+      </c>
+      <c r="C55" t="s">
+        <v>446</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>393</v>
+        <v>447</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>394</v>
+        <v>448</v>
       </c>
       <c r="J55" t="s">
-        <v>395</v>
+        <v>449</v>
       </c>
       <c r="K55" t="s">
-        <v>396</v>
+        <v>450</v>
       </c>
       <c r="L55" t="s">
-        <v>397</v>
+        <v>451</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>387</v>
+        <v>439</v>
       </c>
       <c r="O55" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="n">
@@ -6482,50 +7058,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>397</v>
+        <v>451</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>26502</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>133196</v>
+      </c>
+      <c r="C56" t="s">
+        <v>452</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>398</v>
+        <v>453</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>399</v>
+        <v>454</v>
       </c>
       <c r="J56" t="s">
-        <v>400</v>
+        <v>455</v>
       </c>
       <c r="K56" t="s">
-        <v>401</v>
+        <v>456</v>
       </c>
       <c r="L56" t="s">
-        <v>402</v>
+        <v>457</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>403</v>
+        <v>458</v>
       </c>
       <c r="O56" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
@@ -6539,50 +7119,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>402</v>
+        <v>457</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>26502</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>133197</v>
+      </c>
+      <c r="C57" t="s">
+        <v>459</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>404</v>
+        <v>460</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>405</v>
+        <v>461</v>
       </c>
       <c r="J57" t="s">
-        <v>406</v>
+        <v>462</v>
       </c>
       <c r="K57" t="s">
-        <v>407</v>
+        <v>463</v>
       </c>
       <c r="L57" t="s">
-        <v>408</v>
+        <v>464</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>370</v>
+        <v>420</v>
       </c>
       <c r="O57" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="n">
@@ -6602,50 +7186,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>409</v>
+        <v>465</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>26502</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>29544</v>
+      </c>
+      <c r="C58" t="s">
+        <v>466</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>410</v>
+        <v>467</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>411</v>
+        <v>468</v>
       </c>
       <c r="J58" t="s">
-        <v>412</v>
+        <v>469</v>
       </c>
       <c r="K58" t="s">
-        <v>413</v>
+        <v>470</v>
       </c>
       <c r="L58" t="s">
-        <v>414</v>
+        <v>471</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>370</v>
+        <v>420</v>
       </c>
       <c r="O58" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
@@ -6659,50 +7247,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>414</v>
+        <v>471</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>26502</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>68652</v>
+      </c>
+      <c r="C59" t="s">
+        <v>472</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>415</v>
+        <v>473</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>416</v>
+        <v>474</v>
       </c>
       <c r="J59" t="s">
-        <v>417</v>
+        <v>475</v>
       </c>
       <c r="K59" t="s">
-        <v>418</v>
+        <v>476</v>
       </c>
       <c r="L59" t="s">
-        <v>419</v>
+        <v>477</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>370</v>
+        <v>420</v>
       </c>
       <c r="O59" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -6722,50 +7314,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>419</v>
+        <v>477</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>26502</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>36551</v>
+      </c>
+      <c r="C60" t="s">
+        <v>478</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
+        <v>479</v>
+      </c>
+      <c r="G60" t="s">
+        <v>47</v>
+      </c>
+      <c r="H60" t="s">
+        <v>48</v>
+      </c>
+      <c r="I60" t="s">
+        <v>480</v>
+      </c>
+      <c r="J60" t="s">
+        <v>481</v>
+      </c>
+      <c r="K60" t="s">
+        <v>482</v>
+      </c>
+      <c r="L60" t="s">
+        <v>483</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
         <v>420</v>
       </c>
-      <c r="G60" t="s">
-        <v>46</v>
-      </c>
-      <c r="H60" t="s">
-        <v>47</v>
-      </c>
-      <c r="I60" t="s">
-        <v>421</v>
-      </c>
-      <c r="J60" t="s">
-        <v>422</v>
-      </c>
-      <c r="K60" t="s">
-        <v>423</v>
-      </c>
-      <c r="L60" t="s">
-        <v>424</v>
-      </c>
-      <c r="M60" t="n">
-        <v>5</v>
-      </c>
-      <c r="N60" t="s">
-        <v>370</v>
-      </c>
       <c r="O60" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="n">
@@ -6785,50 +7381,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>424</v>
+        <v>483</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>26502</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>191</v>
+      </c>
+      <c r="C61" t="s">
+        <v>484</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>425</v>
+        <v>485</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>426</v>
+        <v>486</v>
       </c>
       <c r="J61" t="s">
-        <v>427</v>
+        <v>487</v>
       </c>
       <c r="K61" t="s">
-        <v>428</v>
+        <v>488</v>
       </c>
       <c r="L61" t="s">
-        <v>429</v>
+        <v>489</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>370</v>
+        <v>420</v>
       </c>
       <c r="O61" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="n">
@@ -6848,50 +7448,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>429</v>
+        <v>489</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>26502</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>20685</v>
+      </c>
+      <c r="C62" t="s">
+        <v>490</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>430</v>
+        <v>491</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>431</v>
+        <v>492</v>
       </c>
       <c r="J62" t="s">
-        <v>432</v>
+        <v>493</v>
       </c>
       <c r="K62" t="s">
-        <v>433</v>
+        <v>494</v>
       </c>
       <c r="L62" t="s">
-        <v>434</v>
+        <v>495</v>
       </c>
       <c r="M62" t="n">
         <v>3</v>
       </c>
       <c r="N62" t="s">
-        <v>435</v>
+        <v>496</v>
       </c>
       <c r="O62" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P62" t="s"/>
       <c r="Q62" t="n">
@@ -6907,56 +7511,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>436</v>
+        <v>497</v>
       </c>
       <c r="X62" t="s">
-        <v>437</v>
+        <v>498</v>
       </c>
       <c r="Y62" t="s">
-        <v>438</v>
+        <v>499</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>26502</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>133189</v>
+      </c>
+      <c r="C63" t="s">
+        <v>389</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>439</v>
+        <v>500</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>440</v>
+        <v>501</v>
       </c>
       <c r="J63" t="s">
-        <v>441</v>
+        <v>502</v>
       </c>
       <c r="K63" t="s">
-        <v>442</v>
+        <v>503</v>
       </c>
       <c r="L63" t="s">
-        <v>443</v>
+        <v>504</v>
       </c>
       <c r="M63" t="n">
         <v>3</v>
       </c>
       <c r="N63" t="s">
-        <v>444</v>
+        <v>505</v>
       </c>
       <c r="O63" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P63" t="n">
         <v>3</v>
@@ -6972,56 +7580,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>445</v>
+        <v>506</v>
       </c>
       <c r="X63" t="s">
-        <v>446</v>
+        <v>507</v>
       </c>
       <c r="Y63" t="s">
-        <v>447</v>
+        <v>508</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>26502</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>133198</v>
+      </c>
+      <c r="C64" t="s">
+        <v>509</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>448</v>
+        <v>510</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>449</v>
+        <v>511</v>
       </c>
       <c r="J64" t="s">
-        <v>441</v>
+        <v>502</v>
       </c>
       <c r="K64" t="s">
-        <v>450</v>
+        <v>512</v>
       </c>
       <c r="L64" t="s">
-        <v>451</v>
+        <v>513</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>444</v>
+        <v>505</v>
       </c>
       <c r="O64" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="P64" t="s"/>
       <c r="Q64" t="s"/>
@@ -7035,50 +7647,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>451</v>
+        <v>513</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>26502</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>133199</v>
+      </c>
+      <c r="C65" t="s">
+        <v>514</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>452</v>
+        <v>515</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>453</v>
+        <v>516</v>
       </c>
       <c r="J65" t="s">
-        <v>454</v>
+        <v>517</v>
       </c>
       <c r="K65" t="s">
-        <v>455</v>
+        <v>518</v>
       </c>
       <c r="L65" t="s">
-        <v>456</v>
+        <v>519</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>457</v>
+        <v>520</v>
       </c>
       <c r="O65" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P65" t="n">
         <v>4</v>
@@ -7096,50 +7712,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>458</v>
+        <v>521</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>26502</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>133200</v>
+      </c>
+      <c r="C66" t="s">
+        <v>522</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>459</v>
+        <v>523</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>460</v>
+        <v>524</v>
       </c>
       <c r="J66" t="s">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="K66" t="s">
-        <v>462</v>
+        <v>526</v>
       </c>
       <c r="L66" t="s">
-        <v>463</v>
+        <v>527</v>
       </c>
       <c r="M66" t="n">
         <v>3</v>
       </c>
       <c r="N66" t="s">
-        <v>457</v>
+        <v>520</v>
       </c>
       <c r="O66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P66" t="s"/>
       <c r="Q66" t="s"/>
@@ -7157,56 +7777,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>464</v>
+        <v>528</v>
       </c>
       <c r="X66" t="s">
-        <v>465</v>
+        <v>529</v>
       </c>
       <c r="Y66" t="s">
-        <v>466</v>
+        <v>530</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>26502</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>133201</v>
+      </c>
+      <c r="C67" t="s">
+        <v>531</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>467</v>
+        <v>532</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>468</v>
+        <v>533</v>
       </c>
       <c r="J67" t="s">
-        <v>469</v>
+        <v>534</v>
       </c>
       <c r="K67" t="s">
-        <v>470</v>
+        <v>535</v>
       </c>
       <c r="L67" t="s">
-        <v>471</v>
+        <v>536</v>
       </c>
       <c r="M67" t="n">
         <v>3</v>
       </c>
       <c r="N67" t="s">
-        <v>457</v>
+        <v>520</v>
       </c>
       <c r="O67" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P67" t="n">
         <v>3</v>
@@ -7224,56 +7848,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>472</v>
+        <v>537</v>
       </c>
       <c r="X67" t="s">
-        <v>473</v>
+        <v>538</v>
       </c>
       <c r="Y67" t="s">
-        <v>474</v>
+        <v>539</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>26502</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>133202</v>
+      </c>
+      <c r="C68" t="s">
+        <v>540</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>475</v>
+        <v>541</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>476</v>
+        <v>542</v>
       </c>
       <c r="J68" t="s">
-        <v>477</v>
+        <v>543</v>
       </c>
       <c r="K68" t="s">
-        <v>478</v>
+        <v>544</v>
       </c>
       <c r="L68" t="s">
-        <v>479</v>
+        <v>545</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>480</v>
+        <v>546</v>
       </c>
       <c r="O68" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P68" t="s"/>
       <c r="Q68" t="n">
@@ -7291,56 +7919,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>481</v>
+        <v>547</v>
       </c>
       <c r="X68" t="s">
-        <v>482</v>
+        <v>548</v>
       </c>
       <c r="Y68" t="s">
-        <v>483</v>
+        <v>549</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>26502</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>18567</v>
+      </c>
+      <c r="C69" t="s">
+        <v>550</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>484</v>
+        <v>551</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>485</v>
+        <v>552</v>
       </c>
       <c r="J69" t="s">
-        <v>486</v>
+        <v>553</v>
       </c>
       <c r="K69" t="s">
-        <v>487</v>
+        <v>554</v>
       </c>
       <c r="L69" t="s">
-        <v>488</v>
+        <v>555</v>
       </c>
       <c r="M69" t="n">
         <v>4</v>
       </c>
       <c r="N69" t="s">
-        <v>480</v>
+        <v>546</v>
       </c>
       <c r="O69" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P69" t="s"/>
       <c r="Q69" t="s"/>
@@ -7360,50 +7992,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>489</v>
+        <v>556</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>26502</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>133165</v>
+      </c>
+      <c r="C70" t="s">
+        <v>97</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>490</v>
+        <v>557</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>491</v>
+        <v>558</v>
       </c>
       <c r="J70" t="s">
-        <v>492</v>
+        <v>559</v>
       </c>
       <c r="K70" t="s">
-        <v>493</v>
+        <v>560</v>
       </c>
       <c r="L70" t="s">
-        <v>494</v>
+        <v>561</v>
       </c>
       <c r="M70" t="n">
         <v>3</v>
       </c>
       <c r="N70" t="s">
-        <v>480</v>
+        <v>546</v>
       </c>
       <c r="O70" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P70" t="n">
         <v>3</v>
@@ -7421,47 +8057,51 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>495</v>
+        <v>562</v>
       </c>
       <c r="X70" t="s">
-        <v>496</v>
+        <v>563</v>
       </c>
       <c r="Y70" t="s">
-        <v>497</v>
+        <v>564</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>26502</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>133203</v>
+      </c>
+      <c r="C71" t="s">
+        <v>565</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>498</v>
+        <v>566</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>499</v>
+        <v>567</v>
       </c>
       <c r="J71" t="s">
-        <v>500</v>
+        <v>568</v>
       </c>
       <c r="K71" t="s">
-        <v>501</v>
+        <v>569</v>
       </c>
       <c r="L71" t="s">
-        <v>502</v>
+        <v>570</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
@@ -7488,56 +8128,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>503</v>
+        <v>571</v>
       </c>
       <c r="X71" t="s">
-        <v>504</v>
+        <v>572</v>
       </c>
       <c r="Y71" t="s">
-        <v>505</v>
+        <v>573</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>26502</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>48444</v>
+      </c>
+      <c r="C72" t="s">
+        <v>574</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>506</v>
+        <v>575</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>507</v>
+        <v>576</v>
       </c>
       <c r="J72" t="s">
-        <v>508</v>
+        <v>577</v>
       </c>
       <c r="K72" t="s">
-        <v>509</v>
+        <v>578</v>
       </c>
       <c r="L72" t="s">
-        <v>510</v>
+        <v>579</v>
       </c>
       <c r="M72" t="n">
         <v>3</v>
       </c>
       <c r="N72" t="s">
-        <v>511</v>
+        <v>580</v>
       </c>
       <c r="O72" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P72" t="s"/>
       <c r="Q72" t="s"/>
@@ -7553,56 +8197,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>512</v>
+        <v>581</v>
       </c>
       <c r="X72" t="s">
-        <v>513</v>
+        <v>582</v>
       </c>
       <c r="Y72" t="s">
-        <v>514</v>
+        <v>583</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>26502</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>133204</v>
+      </c>
+      <c r="C73" t="s">
+        <v>584</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>515</v>
+        <v>585</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>516</v>
+        <v>586</v>
       </c>
       <c r="J73" t="s">
-        <v>508</v>
+        <v>577</v>
       </c>
       <c r="K73" t="s">
-        <v>455</v>
+        <v>518</v>
       </c>
       <c r="L73" t="s">
-        <v>517</v>
+        <v>587</v>
       </c>
       <c r="M73" t="n">
         <v>4</v>
       </c>
       <c r="N73" t="s">
-        <v>511</v>
+        <v>580</v>
       </c>
       <c r="O73" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P73" t="s"/>
       <c r="Q73" t="s"/>
@@ -7618,47 +8266,51 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>512</v>
+        <v>581</v>
       </c>
       <c r="X73" t="s">
-        <v>513</v>
+        <v>582</v>
       </c>
       <c r="Y73" t="s">
-        <v>518</v>
+        <v>588</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>26502</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>133205</v>
+      </c>
+      <c r="C74" t="s">
+        <v>589</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>519</v>
+        <v>590</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>520</v>
+        <v>591</v>
       </c>
       <c r="J74" t="s">
-        <v>521</v>
+        <v>592</v>
       </c>
       <c r="K74" t="s">
-        <v>522</v>
+        <v>593</v>
       </c>
       <c r="L74" t="s">
-        <v>523</v>
+        <v>594</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
@@ -7685,56 +8337,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>512</v>
+        <v>581</v>
       </c>
       <c r="X74" t="s">
-        <v>513</v>
+        <v>582</v>
       </c>
       <c r="Y74" t="s">
-        <v>524</v>
+        <v>595</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>26502</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>133206</v>
+      </c>
+      <c r="C75" t="s">
+        <v>596</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>525</v>
+        <v>597</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>526</v>
+        <v>598</v>
       </c>
       <c r="J75" t="s">
-        <v>527</v>
+        <v>599</v>
       </c>
       <c r="K75" t="s">
-        <v>509</v>
+        <v>578</v>
       </c>
       <c r="L75" t="s">
-        <v>528</v>
+        <v>600</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>529</v>
+        <v>601</v>
       </c>
       <c r="O75" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P75" t="n">
         <v>3</v>
@@ -7752,56 +8408,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>530</v>
+        <v>602</v>
       </c>
       <c r="X75" t="s">
-        <v>531</v>
+        <v>603</v>
       </c>
       <c r="Y75" t="s">
-        <v>532</v>
+        <v>604</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>26502</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>133207</v>
+      </c>
+      <c r="C76" t="s">
+        <v>605</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>533</v>
+        <v>606</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>534</v>
+        <v>607</v>
       </c>
       <c r="J76" t="s">
-        <v>535</v>
+        <v>608</v>
       </c>
       <c r="K76" t="s">
-        <v>536</v>
+        <v>609</v>
       </c>
       <c r="L76" t="s">
-        <v>537</v>
+        <v>610</v>
       </c>
       <c r="M76" t="n">
         <v>3</v>
       </c>
       <c r="N76" t="s">
-        <v>538</v>
+        <v>611</v>
       </c>
       <c r="O76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P76" t="s"/>
       <c r="Q76" t="s"/>
@@ -7813,56 +8473,60 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>539</v>
+        <v>612</v>
       </c>
       <c r="X76" t="s">
-        <v>540</v>
+        <v>613</v>
       </c>
       <c r="Y76" t="s">
-        <v>541</v>
+        <v>614</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>26502</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>133208</v>
+      </c>
+      <c r="C77" t="s">
+        <v>615</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>542</v>
+        <v>616</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>543</v>
+        <v>617</v>
       </c>
       <c r="J77" t="s">
-        <v>544</v>
+        <v>618</v>
       </c>
       <c r="K77" t="s">
-        <v>545</v>
+        <v>619</v>
       </c>
       <c r="L77" t="s">
-        <v>546</v>
+        <v>620</v>
       </c>
       <c r="M77" t="n">
         <v>3</v>
       </c>
       <c r="N77" t="s">
-        <v>547</v>
+        <v>621</v>
       </c>
       <c r="O77" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="P77" t="s"/>
       <c r="Q77" t="n">
@@ -7880,47 +8544,51 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>548</v>
+        <v>622</v>
       </c>
       <c r="X77" t="s">
-        <v>549</v>
+        <v>623</v>
       </c>
       <c r="Y77" t="s">
-        <v>550</v>
+        <v>624</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>26502</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>133209</v>
+      </c>
+      <c r="C78" t="s">
+        <v>625</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>551</v>
+        <v>626</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>552</v>
+        <v>627</v>
       </c>
       <c r="J78" t="s">
-        <v>553</v>
+        <v>628</v>
       </c>
       <c r="K78" t="s">
-        <v>554</v>
+        <v>629</v>
       </c>
       <c r="L78" t="s">
-        <v>555</v>
+        <v>630</v>
       </c>
       <c r="M78" t="n">
         <v>5</v>
@@ -7947,56 +8615,60 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>556</v>
+        <v>631</v>
       </c>
       <c r="X78" t="s">
-        <v>557</v>
+        <v>632</v>
       </c>
       <c r="Y78" t="s">
-        <v>558</v>
+        <v>633</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>26502</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>6231</v>
+      </c>
+      <c r="C79" t="s">
+        <v>634</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>559</v>
+        <v>635</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>560</v>
+        <v>636</v>
       </c>
       <c r="J79" t="s">
-        <v>561</v>
+        <v>637</v>
       </c>
       <c r="K79" t="s">
-        <v>562</v>
+        <v>638</v>
       </c>
       <c r="L79" t="s">
-        <v>563</v>
+        <v>639</v>
       </c>
       <c r="M79" t="n">
         <v>4</v>
       </c>
       <c r="N79" t="s">
-        <v>547</v>
+        <v>621</v>
       </c>
       <c r="O79" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P79" t="s"/>
       <c r="Q79" t="s"/>
@@ -8010,56 +8682,60 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>564</v>
+        <v>640</v>
       </c>
       <c r="X79" t="s">
-        <v>565</v>
+        <v>641</v>
       </c>
       <c r="Y79" t="s">
-        <v>566</v>
+        <v>642</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>26502</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>133210</v>
+      </c>
+      <c r="C80" t="s">
+        <v>643</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>567</v>
+        <v>644</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>568</v>
+        <v>645</v>
       </c>
       <c r="J80" t="s">
-        <v>569</v>
+        <v>646</v>
       </c>
       <c r="K80" t="s">
-        <v>570</v>
+        <v>647</v>
       </c>
       <c r="L80" t="s">
-        <v>571</v>
+        <v>648</v>
       </c>
       <c r="M80" t="n">
         <v>5</v>
       </c>
       <c r="N80" t="s">
-        <v>529</v>
+        <v>601</v>
       </c>
       <c r="O80" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P80" t="s"/>
       <c r="Q80" t="n">
@@ -8075,56 +8751,60 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>564</v>
+        <v>640</v>
       </c>
       <c r="X80" t="s">
-        <v>565</v>
+        <v>641</v>
       </c>
       <c r="Y80" t="s">
-        <v>572</v>
+        <v>649</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>26502</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>133189</v>
+      </c>
+      <c r="C81" t="s">
+        <v>389</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>573</v>
+        <v>650</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>574</v>
+        <v>651</v>
       </c>
       <c r="J81" t="s">
-        <v>575</v>
+        <v>652</v>
       </c>
       <c r="K81" t="s">
-        <v>509</v>
+        <v>578</v>
       </c>
       <c r="L81" t="s">
-        <v>576</v>
+        <v>653</v>
       </c>
       <c r="M81" t="n">
         <v>4</v>
       </c>
       <c r="N81" t="s">
-        <v>529</v>
+        <v>601</v>
       </c>
       <c r="O81" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P81" t="n">
         <v>3</v>
@@ -8144,50 +8824,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>576</v>
+        <v>653</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>26502</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>133211</v>
+      </c>
+      <c r="C82" t="s">
+        <v>654</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>577</v>
+        <v>655</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>578</v>
+        <v>656</v>
       </c>
       <c r="J82" t="s">
-        <v>579</v>
+        <v>657</v>
       </c>
       <c r="K82" t="s">
-        <v>580</v>
+        <v>658</v>
       </c>
       <c r="L82" t="s">
-        <v>581</v>
+        <v>659</v>
       </c>
       <c r="M82" t="n">
         <v>4</v>
       </c>
       <c r="N82" t="s">
-        <v>582</v>
+        <v>660</v>
       </c>
       <c r="O82" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P82" t="n">
         <v>4</v>
@@ -8209,56 +8893,60 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>564</v>
+        <v>640</v>
       </c>
       <c r="X82" t="s">
-        <v>565</v>
+        <v>641</v>
       </c>
       <c r="Y82" t="s">
-        <v>583</v>
+        <v>661</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>26502</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>133212</v>
+      </c>
+      <c r="C83" t="s">
+        <v>662</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>584</v>
+        <v>663</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>585</v>
+        <v>664</v>
       </c>
       <c r="J83" t="s">
-        <v>586</v>
+        <v>665</v>
       </c>
       <c r="K83" t="s">
-        <v>587</v>
+        <v>666</v>
       </c>
       <c r="L83" t="s">
-        <v>588</v>
+        <v>667</v>
       </c>
       <c r="M83" t="n">
         <v>4</v>
       </c>
       <c r="N83" t="s">
-        <v>589</v>
+        <v>668</v>
       </c>
       <c r="O83" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P83" t="n">
         <v>3</v>
@@ -8280,56 +8968,60 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>590</v>
+        <v>669</v>
       </c>
       <c r="X83" t="s">
-        <v>591</v>
+        <v>670</v>
       </c>
       <c r="Y83" t="s">
-        <v>592</v>
+        <v>671</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>26502</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>133213</v>
+      </c>
+      <c r="C84" t="s">
+        <v>672</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>593</v>
+        <v>673</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>594</v>
+        <v>674</v>
       </c>
       <c r="J84" t="s">
-        <v>595</v>
+        <v>675</v>
       </c>
       <c r="K84" t="s">
-        <v>596</v>
+        <v>676</v>
       </c>
       <c r="L84" t="s">
-        <v>597</v>
+        <v>677</v>
       </c>
       <c r="M84" t="n">
         <v>5</v>
       </c>
       <c r="N84" t="s">
-        <v>589</v>
+        <v>668</v>
       </c>
       <c r="O84" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P84" t="n">
         <v>5</v>
@@ -8351,56 +9043,60 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>590</v>
+        <v>669</v>
       </c>
       <c r="X84" t="s">
-        <v>591</v>
+        <v>670</v>
       </c>
       <c r="Y84" t="s">
-        <v>598</v>
+        <v>678</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>26502</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>15083</v>
+      </c>
+      <c r="C85" t="s">
+        <v>679</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>599</v>
+        <v>680</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>600</v>
+        <v>681</v>
       </c>
       <c r="J85" t="s">
-        <v>601</v>
+        <v>682</v>
       </c>
       <c r="K85" t="s">
-        <v>602</v>
+        <v>683</v>
       </c>
       <c r="L85" t="s">
-        <v>603</v>
+        <v>684</v>
       </c>
       <c r="M85" t="n">
         <v>5</v>
       </c>
       <c r="N85" t="s">
-        <v>589</v>
+        <v>668</v>
       </c>
       <c r="O85" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P85" t="n">
         <v>4</v>
@@ -8422,56 +9118,60 @@
         <v>0</v>
       </c>
       <c r="W85" t="s">
-        <v>590</v>
+        <v>669</v>
       </c>
       <c r="X85" t="s">
-        <v>591</v>
+        <v>670</v>
       </c>
       <c r="Y85" t="s">
-        <v>604</v>
+        <v>685</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>26502</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>133214</v>
+      </c>
+      <c r="C86" t="s">
+        <v>686</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>605</v>
+        <v>687</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>606</v>
+        <v>688</v>
       </c>
       <c r="J86" t="s">
-        <v>607</v>
+        <v>689</v>
       </c>
       <c r="K86" t="s">
-        <v>608</v>
+        <v>690</v>
       </c>
       <c r="L86" t="s">
-        <v>609</v>
+        <v>691</v>
       </c>
       <c r="M86" t="n">
         <v>5</v>
       </c>
       <c r="N86" t="s">
-        <v>610</v>
+        <v>692</v>
       </c>
       <c r="O86" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P86" t="s"/>
       <c r="Q86" t="s"/>
@@ -8483,56 +9183,60 @@
         <v>0</v>
       </c>
       <c r="W86" t="s">
-        <v>611</v>
+        <v>693</v>
       </c>
       <c r="X86" t="s">
-        <v>612</v>
+        <v>694</v>
       </c>
       <c r="Y86" t="s">
-        <v>613</v>
+        <v>695</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>26502</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>133215</v>
+      </c>
+      <c r="C87" t="s">
+        <v>696</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>614</v>
+        <v>697</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>615</v>
+        <v>698</v>
       </c>
       <c r="J87" t="s">
-        <v>616</v>
+        <v>699</v>
       </c>
       <c r="K87" t="s">
-        <v>617</v>
+        <v>700</v>
       </c>
       <c r="L87" t="s">
-        <v>618</v>
+        <v>701</v>
       </c>
       <c r="M87" t="n">
         <v>5</v>
       </c>
       <c r="N87" t="s">
-        <v>610</v>
+        <v>692</v>
       </c>
       <c r="O87" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P87" t="n">
         <v>5</v>
@@ -8554,56 +9258,60 @@
         <v>0</v>
       </c>
       <c r="W87" t="s">
-        <v>611</v>
+        <v>693</v>
       </c>
       <c r="X87" t="s">
-        <v>612</v>
+        <v>694</v>
       </c>
       <c r="Y87" t="s">
-        <v>619</v>
+        <v>702</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>26502</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>133216</v>
+      </c>
+      <c r="C88" t="s">
+        <v>703</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>620</v>
+        <v>704</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>621</v>
+        <v>705</v>
       </c>
       <c r="J88" t="s">
-        <v>622</v>
+        <v>706</v>
       </c>
       <c r="K88" t="s">
-        <v>623</v>
+        <v>707</v>
       </c>
       <c r="L88" t="s">
-        <v>624</v>
+        <v>708</v>
       </c>
       <c r="M88" t="n">
         <v>4</v>
       </c>
       <c r="N88" t="s">
-        <v>610</v>
+        <v>692</v>
       </c>
       <c r="O88" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P88" t="n">
         <v>4</v>
@@ -8625,56 +9333,60 @@
         <v>0</v>
       </c>
       <c r="W88" t="s">
-        <v>625</v>
+        <v>709</v>
       </c>
       <c r="X88" t="s">
-        <v>626</v>
+        <v>710</v>
       </c>
       <c r="Y88" t="s">
-        <v>627</v>
+        <v>711</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>26502</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>133217</v>
+      </c>
+      <c r="C89" t="s">
+        <v>712</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>628</v>
+        <v>713</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>629</v>
+        <v>714</v>
       </c>
       <c r="J89" t="s">
-        <v>630</v>
+        <v>715</v>
       </c>
       <c r="K89" t="s">
-        <v>631</v>
+        <v>716</v>
       </c>
       <c r="L89" t="s">
-        <v>632</v>
+        <v>717</v>
       </c>
       <c r="M89" t="n">
         <v>3</v>
       </c>
       <c r="N89" t="s">
-        <v>582</v>
+        <v>660</v>
       </c>
       <c r="O89" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P89" t="n">
         <v>4</v>
@@ -8696,56 +9408,60 @@
         <v>0</v>
       </c>
       <c r="W89" t="s">
-        <v>633</v>
+        <v>718</v>
       </c>
       <c r="X89" t="s">
-        <v>634</v>
+        <v>719</v>
       </c>
       <c r="Y89" t="s">
-        <v>635</v>
+        <v>720</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>26502</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>133218</v>
+      </c>
+      <c r="C90" t="s">
+        <v>721</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>636</v>
+        <v>722</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>637</v>
+        <v>723</v>
       </c>
       <c r="J90" t="s">
-        <v>638</v>
+        <v>724</v>
       </c>
       <c r="K90" t="s">
-        <v>639</v>
+        <v>725</v>
       </c>
       <c r="L90" t="s">
-        <v>640</v>
+        <v>726</v>
       </c>
       <c r="M90" t="n">
         <v>4</v>
       </c>
       <c r="N90" t="s">
-        <v>641</v>
+        <v>727</v>
       </c>
       <c r="O90" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P90" t="n">
         <v>4</v>
@@ -8767,56 +9483,60 @@
         <v>0</v>
       </c>
       <c r="W90" t="s">
-        <v>611</v>
+        <v>693</v>
       </c>
       <c r="X90" t="s">
-        <v>612</v>
+        <v>694</v>
       </c>
       <c r="Y90" t="s">
-        <v>642</v>
+        <v>728</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>26502</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>133219</v>
+      </c>
+      <c r="C91" t="s">
+        <v>729</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>643</v>
+        <v>730</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>644</v>
+        <v>731</v>
       </c>
       <c r="J91" t="s">
-        <v>645</v>
+        <v>732</v>
       </c>
       <c r="K91" t="s">
-        <v>646</v>
+        <v>733</v>
       </c>
       <c r="L91" t="s">
-        <v>647</v>
+        <v>734</v>
       </c>
       <c r="M91" t="n">
         <v>5</v>
       </c>
       <c r="N91" t="s">
-        <v>648</v>
+        <v>735</v>
       </c>
       <c r="O91" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P91" t="n">
         <v>5</v>
@@ -8838,56 +9558,60 @@
         <v>0</v>
       </c>
       <c r="W91" t="s">
-        <v>649</v>
+        <v>736</v>
       </c>
       <c r="X91" t="s">
-        <v>650</v>
+        <v>737</v>
       </c>
       <c r="Y91" t="s">
-        <v>651</v>
+        <v>738</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>26502</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>133220</v>
+      </c>
+      <c r="C92" t="s">
+        <v>739</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>652</v>
+        <v>740</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>653</v>
+        <v>741</v>
       </c>
       <c r="J92" t="s">
-        <v>654</v>
+        <v>742</v>
       </c>
       <c r="K92" t="s">
-        <v>655</v>
+        <v>743</v>
       </c>
       <c r="L92" t="s">
-        <v>656</v>
+        <v>744</v>
       </c>
       <c r="M92" t="n">
         <v>3</v>
       </c>
       <c r="N92" t="s">
-        <v>657</v>
+        <v>745</v>
       </c>
       <c r="O92" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P92" t="n">
         <v>5</v>
@@ -8911,50 +9635,54 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>658</v>
+        <v>746</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>26502</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>133221</v>
+      </c>
+      <c r="C93" t="s">
+        <v>747</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>659</v>
+        <v>748</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>660</v>
+        <v>749</v>
       </c>
       <c r="J93" t="s">
-        <v>661</v>
+        <v>750</v>
       </c>
       <c r="K93" t="s">
-        <v>662</v>
+        <v>751</v>
       </c>
       <c r="L93" t="s">
-        <v>663</v>
+        <v>752</v>
       </c>
       <c r="M93" t="n">
         <v>3</v>
       </c>
       <c r="N93" t="s">
-        <v>657</v>
+        <v>745</v>
       </c>
       <c r="O93" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P93" t="n">
         <v>3</v>
@@ -8978,50 +9706,54 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>663</v>
+        <v>752</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>26502</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>133222</v>
+      </c>
+      <c r="C94" t="s">
+        <v>753</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>664</v>
+        <v>754</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>665</v>
+        <v>755</v>
       </c>
       <c r="J94" t="s">
-        <v>666</v>
+        <v>756</v>
       </c>
       <c r="K94" t="s">
-        <v>667</v>
+        <v>757</v>
       </c>
       <c r="L94" t="s">
-        <v>668</v>
+        <v>758</v>
       </c>
       <c r="M94" t="n">
         <v>4</v>
       </c>
       <c r="N94" t="s">
-        <v>669</v>
+        <v>759</v>
       </c>
       <c r="O94" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P94" t="n">
         <v>4</v>
@@ -9045,50 +9777,54 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>668</v>
+        <v>758</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>26502</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>133223</v>
+      </c>
+      <c r="C95" t="s">
+        <v>760</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>670</v>
+        <v>761</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>671</v>
+        <v>762</v>
       </c>
       <c r="J95" t="s">
-        <v>672</v>
+        <v>763</v>
       </c>
       <c r="K95" t="s">
-        <v>673</v>
+        <v>764</v>
       </c>
       <c r="L95" t="s">
-        <v>674</v>
+        <v>765</v>
       </c>
       <c r="M95" t="n">
         <v>3</v>
       </c>
       <c r="N95" t="s">
-        <v>538</v>
+        <v>611</v>
       </c>
       <c r="O95" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P95" t="n">
         <v>2</v>
@@ -9110,50 +9846,54 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>675</v>
+        <v>766</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>26502</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>9237</v>
+      </c>
+      <c r="C96" t="s">
+        <v>767</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>676</v>
+        <v>768</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>677</v>
+        <v>769</v>
       </c>
       <c r="J96" t="s">
-        <v>678</v>
+        <v>770</v>
       </c>
       <c r="K96" t="s">
-        <v>679</v>
+        <v>771</v>
       </c>
       <c r="L96" t="s">
-        <v>680</v>
+        <v>772</v>
       </c>
       <c r="M96" t="n">
         <v>5</v>
       </c>
       <c r="N96" t="s">
-        <v>681</v>
+        <v>773</v>
       </c>
       <c r="O96" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P96" t="n">
         <v>5</v>
@@ -9175,56 +9915,60 @@
         <v>0</v>
       </c>
       <c r="W96" t="s">
-        <v>682</v>
+        <v>774</v>
       </c>
       <c r="X96" t="s">
-        <v>683</v>
+        <v>775</v>
       </c>
       <c r="Y96" t="s">
-        <v>684</v>
+        <v>776</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>26502</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>133224</v>
+      </c>
+      <c r="C97" t="s">
+        <v>777</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>685</v>
+        <v>778</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>686</v>
+        <v>779</v>
       </c>
       <c r="J97" t="s">
-        <v>687</v>
+        <v>780</v>
       </c>
       <c r="K97" t="s">
-        <v>688</v>
+        <v>781</v>
       </c>
       <c r="L97" t="s">
-        <v>689</v>
+        <v>782</v>
       </c>
       <c r="M97" t="n">
         <v>3</v>
       </c>
       <c r="N97" t="s">
-        <v>582</v>
+        <v>660</v>
       </c>
       <c r="O97" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P97" t="n">
         <v>3</v>
@@ -9246,56 +9990,60 @@
         <v>0</v>
       </c>
       <c r="W97" t="s">
-        <v>690</v>
+        <v>783</v>
       </c>
       <c r="X97" t="s">
-        <v>691</v>
+        <v>784</v>
       </c>
       <c r="Y97" t="s">
-        <v>692</v>
+        <v>785</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>26502</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>133225</v>
+      </c>
+      <c r="C98" t="s">
+        <v>786</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>693</v>
+        <v>787</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>694</v>
+        <v>788</v>
       </c>
       <c r="J98" t="s">
-        <v>695</v>
+        <v>789</v>
       </c>
       <c r="K98" t="s">
-        <v>696</v>
+        <v>790</v>
       </c>
       <c r="L98" t="s">
-        <v>697</v>
+        <v>791</v>
       </c>
       <c r="M98" t="n">
         <v>4</v>
       </c>
       <c r="N98" t="s">
-        <v>698</v>
+        <v>792</v>
       </c>
       <c r="O98" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="P98" t="n">
         <v>5</v>
@@ -9319,41 +10067,45 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>697</v>
+        <v>791</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>26502</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>133226</v>
+      </c>
+      <c r="C99" t="s">
+        <v>793</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>699</v>
+        <v>794</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>700</v>
+        <v>795</v>
       </c>
       <c r="J99" t="s">
-        <v>701</v>
+        <v>796</v>
       </c>
       <c r="K99" t="s">
-        <v>702</v>
+        <v>797</v>
       </c>
       <c r="L99" t="s">
-        <v>703</v>
+        <v>798</v>
       </c>
       <c r="M99" t="n">
         <v>5</v>
@@ -9382,50 +10134,54 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>703</v>
+        <v>798</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>26502</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>133227</v>
+      </c>
+      <c r="C100" t="s">
+        <v>799</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>704</v>
+        <v>800</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>705</v>
+        <v>801</v>
       </c>
       <c r="J100" t="s">
-        <v>706</v>
+        <v>802</v>
       </c>
       <c r="K100" t="s">
-        <v>707</v>
+        <v>803</v>
       </c>
       <c r="L100" t="s">
-        <v>708</v>
+        <v>804</v>
       </c>
       <c r="M100" t="n">
         <v>3</v>
       </c>
       <c r="N100" t="s">
-        <v>709</v>
+        <v>805</v>
       </c>
       <c r="O100" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P100" t="n">
         <v>3</v>
@@ -9447,56 +10203,60 @@
         <v>0</v>
       </c>
       <c r="W100" t="s">
-        <v>710</v>
+        <v>806</v>
       </c>
       <c r="X100" t="s">
-        <v>711</v>
+        <v>807</v>
       </c>
       <c r="Y100" t="s">
-        <v>712</v>
+        <v>808</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>26502</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>133228</v>
+      </c>
+      <c r="C101" t="s">
+        <v>809</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>713</v>
+        <v>810</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>714</v>
+        <v>811</v>
       </c>
       <c r="J101" t="s">
-        <v>715</v>
+        <v>812</v>
       </c>
       <c r="K101" t="s">
-        <v>716</v>
+        <v>813</v>
       </c>
       <c r="L101" t="s">
-        <v>717</v>
+        <v>814</v>
       </c>
       <c r="M101" t="n">
         <v>3</v>
       </c>
       <c r="N101" t="s">
-        <v>718</v>
+        <v>815</v>
       </c>
       <c r="O101" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P101" t="n">
         <v>3</v>
@@ -9518,56 +10278,60 @@
         <v>0</v>
       </c>
       <c r="W101" t="s">
-        <v>719</v>
+        <v>816</v>
       </c>
       <c r="X101" t="s">
-        <v>720</v>
+        <v>817</v>
       </c>
       <c r="Y101" t="s">
-        <v>721</v>
+        <v>818</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>26502</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>5200</v>
+      </c>
+      <c r="C102" t="s">
+        <v>819</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>722</v>
+        <v>820</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>723</v>
+        <v>821</v>
       </c>
       <c r="J102" t="s">
-        <v>724</v>
+        <v>822</v>
       </c>
       <c r="K102" t="s">
-        <v>725</v>
+        <v>823</v>
       </c>
       <c r="L102" t="s">
-        <v>726</v>
+        <v>824</v>
       </c>
       <c r="M102" t="n">
         <v>3</v>
       </c>
       <c r="N102" t="s">
-        <v>727</v>
+        <v>825</v>
       </c>
       <c r="O102" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P102" t="n">
         <v>3</v>
@@ -9589,56 +10353,60 @@
         <v>0</v>
       </c>
       <c r="W102" t="s">
-        <v>682</v>
+        <v>774</v>
       </c>
       <c r="X102" t="s">
-        <v>683</v>
+        <v>775</v>
       </c>
       <c r="Y102" t="s">
-        <v>728</v>
+        <v>826</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>26502</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>133229</v>
+      </c>
+      <c r="C103" t="s">
+        <v>827</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>729</v>
+        <v>828</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>730</v>
+        <v>829</v>
       </c>
       <c r="J103" t="s">
-        <v>731</v>
+        <v>830</v>
       </c>
       <c r="K103" t="s">
-        <v>732</v>
+        <v>831</v>
       </c>
       <c r="L103" t="s">
-        <v>733</v>
+        <v>832</v>
       </c>
       <c r="M103" t="n">
         <v>4</v>
       </c>
       <c r="N103" t="s">
-        <v>734</v>
+        <v>833</v>
       </c>
       <c r="O103" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P103" t="n">
         <v>5</v>
@@ -9662,50 +10430,54 @@
       <c r="W103" t="s"/>
       <c r="X103" t="s"/>
       <c r="Y103" t="s">
-        <v>735</v>
+        <v>834</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>26502</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>133230</v>
+      </c>
+      <c r="C104" t="s">
+        <v>835</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>736</v>
+        <v>836</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>737</v>
+        <v>837</v>
       </c>
       <c r="J104" t="s">
-        <v>738</v>
+        <v>838</v>
       </c>
       <c r="K104" t="s">
-        <v>739</v>
+        <v>839</v>
       </c>
       <c r="L104" t="s">
-        <v>740</v>
+        <v>840</v>
       </c>
       <c r="M104" t="n">
         <v>3</v>
       </c>
       <c r="N104" t="s">
-        <v>741</v>
+        <v>841</v>
       </c>
       <c r="O104" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P104" t="s"/>
       <c r="Q104" t="s"/>
@@ -9717,56 +10489,60 @@
         <v>0</v>
       </c>
       <c r="W104" t="s">
-        <v>742</v>
+        <v>842</v>
       </c>
       <c r="X104" t="s">
-        <v>743</v>
+        <v>843</v>
       </c>
       <c r="Y104" t="s">
-        <v>744</v>
+        <v>844</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>26502</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>133231</v>
+      </c>
+      <c r="C105" t="s">
+        <v>845</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>745</v>
+        <v>846</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>746</v>
+        <v>847</v>
       </c>
       <c r="J105" t="s">
-        <v>747</v>
+        <v>848</v>
       </c>
       <c r="K105" t="s">
-        <v>748</v>
+        <v>849</v>
       </c>
       <c r="L105" t="s">
-        <v>749</v>
+        <v>850</v>
       </c>
       <c r="M105" t="n">
         <v>3</v>
       </c>
       <c r="N105" t="s">
-        <v>750</v>
+        <v>851</v>
       </c>
       <c r="O105" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P105" t="n">
         <v>5</v>
@@ -9788,47 +10564,51 @@
         <v>0</v>
       </c>
       <c r="W105" t="s">
-        <v>751</v>
+        <v>852</v>
       </c>
       <c r="X105" t="s">
-        <v>752</v>
+        <v>853</v>
       </c>
       <c r="Y105" t="s">
-        <v>753</v>
+        <v>854</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>26502</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>133232</v>
+      </c>
+      <c r="C106" t="s">
+        <v>855</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>754</v>
+        <v>856</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>755</v>
+        <v>857</v>
       </c>
       <c r="J106" t="s">
-        <v>756</v>
+        <v>858</v>
       </c>
       <c r="K106" t="s">
-        <v>757</v>
+        <v>859</v>
       </c>
       <c r="L106" t="s">
-        <v>758</v>
+        <v>860</v>
       </c>
       <c r="M106" t="n">
         <v>1</v>
@@ -9855,47 +10635,51 @@
         <v>0</v>
       </c>
       <c r="W106" t="s">
-        <v>742</v>
+        <v>842</v>
       </c>
       <c r="X106" t="s">
-        <v>743</v>
+        <v>843</v>
       </c>
       <c r="Y106" t="s">
-        <v>759</v>
+        <v>861</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>26502</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>133233</v>
+      </c>
+      <c r="C107" t="s">
+        <v>862</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>760</v>
+        <v>863</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I107" t="s">
-        <v>761</v>
+        <v>864</v>
       </c>
       <c r="J107" t="s">
-        <v>762</v>
+        <v>865</v>
       </c>
       <c r="K107" t="s">
-        <v>763</v>
+        <v>866</v>
       </c>
       <c r="L107" t="s">
-        <v>764</v>
+        <v>867</v>
       </c>
       <c r="M107" t="n">
         <v>5</v>
@@ -9924,50 +10708,54 @@
       <c r="W107" t="s"/>
       <c r="X107" t="s"/>
       <c r="Y107" t="s">
-        <v>764</v>
+        <v>867</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>26502</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>133234</v>
+      </c>
+      <c r="C108" t="s">
+        <v>868</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>765</v>
+        <v>869</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I108" t="s">
-        <v>766</v>
+        <v>870</v>
       </c>
       <c r="J108" t="s">
-        <v>767</v>
+        <v>871</v>
       </c>
       <c r="K108" t="s">
-        <v>768</v>
+        <v>872</v>
       </c>
       <c r="L108" t="s">
-        <v>769</v>
+        <v>873</v>
       </c>
       <c r="M108" t="n">
         <v>4</v>
       </c>
       <c r="N108" t="s">
-        <v>770</v>
+        <v>874</v>
       </c>
       <c r="O108" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P108" t="n">
         <v>3</v>
@@ -9991,50 +10779,54 @@
       <c r="W108" t="s"/>
       <c r="X108" t="s"/>
       <c r="Y108" t="s">
-        <v>771</v>
+        <v>875</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>26502</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>133235</v>
+      </c>
+      <c r="C109" t="s">
+        <v>876</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>772</v>
+        <v>877</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I109" t="s">
-        <v>773</v>
+        <v>878</v>
       </c>
       <c r="J109" t="s">
-        <v>774</v>
+        <v>879</v>
       </c>
       <c r="K109" t="s">
-        <v>775</v>
+        <v>880</v>
       </c>
       <c r="L109" t="s">
-        <v>776</v>
+        <v>881</v>
       </c>
       <c r="M109" t="n">
         <v>5</v>
       </c>
       <c r="N109" t="s">
-        <v>777</v>
+        <v>882</v>
       </c>
       <c r="O109" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P109" t="n">
         <v>4</v>
@@ -10058,41 +10850,45 @@
       <c r="W109" t="s"/>
       <c r="X109" t="s"/>
       <c r="Y109" t="s">
-        <v>776</v>
+        <v>881</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>26502</v>
       </c>
-      <c r="B110" t="s"/>
-      <c r="C110" t="s"/>
+      <c r="B110" t="n">
+        <v>133236</v>
+      </c>
+      <c r="C110" t="s">
+        <v>883</v>
+      </c>
       <c r="D110" t="n">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F110" t="s">
-        <v>778</v>
+        <v>884</v>
       </c>
       <c r="G110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I110" t="s">
-        <v>779</v>
+        <v>885</v>
       </c>
       <c r="J110" t="s">
-        <v>780</v>
+        <v>886</v>
       </c>
       <c r="K110" t="s">
-        <v>781</v>
+        <v>887</v>
       </c>
       <c r="L110" t="s">
-        <v>782</v>
+        <v>888</v>
       </c>
       <c r="M110" t="n">
         <v>1</v>
@@ -10119,56 +10915,60 @@
         <v>0</v>
       </c>
       <c r="W110" t="s">
-        <v>682</v>
+        <v>774</v>
       </c>
       <c r="X110" t="s">
-        <v>683</v>
+        <v>775</v>
       </c>
       <c r="Y110" t="s">
-        <v>783</v>
+        <v>889</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>26502</v>
       </c>
-      <c r="B111" t="s"/>
-      <c r="C111" t="s"/>
+      <c r="B111" t="n">
+        <v>133237</v>
+      </c>
+      <c r="C111" t="s">
+        <v>890</v>
+      </c>
       <c r="D111" t="n">
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F111" t="s">
-        <v>784</v>
+        <v>891</v>
       </c>
       <c r="G111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I111" t="s">
-        <v>785</v>
+        <v>892</v>
       </c>
       <c r="J111" t="s">
-        <v>786</v>
+        <v>893</v>
       </c>
       <c r="K111" t="s">
-        <v>787</v>
+        <v>894</v>
       </c>
       <c r="L111" t="s">
-        <v>788</v>
+        <v>895</v>
       </c>
       <c r="M111" t="n">
         <v>4</v>
       </c>
       <c r="N111" t="s">
-        <v>789</v>
+        <v>896</v>
       </c>
       <c r="O111" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P111" t="n">
         <v>4</v>
@@ -10192,50 +10992,54 @@
       <c r="W111" t="s"/>
       <c r="X111" t="s"/>
       <c r="Y111" t="s">
-        <v>790</v>
+        <v>897</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
         <v>26502</v>
       </c>
-      <c r="B112" t="s"/>
-      <c r="C112" t="s"/>
+      <c r="B112" t="n">
+        <v>133238</v>
+      </c>
+      <c r="C112" t="s">
+        <v>898</v>
+      </c>
       <c r="D112" t="n">
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F112" t="s">
-        <v>791</v>
+        <v>899</v>
       </c>
       <c r="G112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I112" t="s">
-        <v>792</v>
+        <v>900</v>
       </c>
       <c r="J112" t="s">
-        <v>793</v>
+        <v>901</v>
       </c>
       <c r="K112" t="s">
-        <v>794</v>
+        <v>902</v>
       </c>
       <c r="L112" t="s">
-        <v>795</v>
+        <v>903</v>
       </c>
       <c r="M112" t="n">
         <v>3</v>
       </c>
       <c r="N112" t="s">
-        <v>789</v>
+        <v>896</v>
       </c>
       <c r="O112" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P112" t="n">
         <v>3</v>
@@ -10255,50 +11059,54 @@
       <c r="W112" t="s"/>
       <c r="X112" t="s"/>
       <c r="Y112" t="s">
-        <v>795</v>
+        <v>903</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
         <v>26502</v>
       </c>
-      <c r="B113" t="s"/>
-      <c r="C113" t="s"/>
+      <c r="B113" t="n">
+        <v>133239</v>
+      </c>
+      <c r="C113" t="s">
+        <v>904</v>
+      </c>
       <c r="D113" t="n">
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F113" t="s">
-        <v>796</v>
+        <v>905</v>
       </c>
       <c r="G113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H113" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I113" t="s">
-        <v>797</v>
+        <v>906</v>
       </c>
       <c r="J113" t="s">
-        <v>798</v>
+        <v>907</v>
       </c>
       <c r="K113" t="s">
-        <v>799</v>
+        <v>908</v>
       </c>
       <c r="L113" t="s">
-        <v>800</v>
+        <v>909</v>
       </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
       <c r="N113" t="s">
-        <v>801</v>
+        <v>910</v>
       </c>
       <c r="O113" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P113" t="n">
         <v>2</v>
@@ -10318,50 +11126,54 @@
       <c r="W113" t="s"/>
       <c r="X113" t="s"/>
       <c r="Y113" t="s">
-        <v>802</v>
+        <v>911</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
         <v>26502</v>
       </c>
-      <c r="B114" t="s"/>
-      <c r="C114" t="s"/>
+      <c r="B114" t="n">
+        <v>133240</v>
+      </c>
+      <c r="C114" t="s">
+        <v>912</v>
+      </c>
       <c r="D114" t="n">
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F114" t="s">
-        <v>803</v>
+        <v>913</v>
       </c>
       <c r="G114" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H114" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I114" t="s">
-        <v>804</v>
+        <v>914</v>
       </c>
       <c r="J114" t="s">
-        <v>805</v>
+        <v>915</v>
       </c>
       <c r="K114" t="s">
-        <v>806</v>
+        <v>916</v>
       </c>
       <c r="L114" t="s">
-        <v>807</v>
+        <v>917</v>
       </c>
       <c r="M114" t="n">
         <v>5</v>
       </c>
       <c r="N114" t="s">
-        <v>808</v>
+        <v>918</v>
       </c>
       <c r="O114" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P114" t="n">
         <v>5</v>
@@ -10381,50 +11193,54 @@
       <c r="W114" t="s"/>
       <c r="X114" t="s"/>
       <c r="Y114" t="s">
-        <v>807</v>
+        <v>917</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
         <v>26502</v>
       </c>
-      <c r="B115" t="s"/>
-      <c r="C115" t="s"/>
+      <c r="B115" t="n">
+        <v>133241</v>
+      </c>
+      <c r="C115" t="s">
+        <v>919</v>
+      </c>
       <c r="D115" t="n">
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F115" t="s">
-        <v>809</v>
+        <v>920</v>
       </c>
       <c r="G115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H115" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I115" t="s">
-        <v>810</v>
+        <v>921</v>
       </c>
       <c r="J115" t="s">
-        <v>811</v>
+        <v>922</v>
       </c>
       <c r="K115" t="s">
-        <v>812</v>
+        <v>923</v>
       </c>
       <c r="L115" t="s">
-        <v>813</v>
+        <v>924</v>
       </c>
       <c r="M115" t="n">
         <v>4</v>
       </c>
       <c r="N115" t="s">
-        <v>808</v>
+        <v>918</v>
       </c>
       <c r="O115" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P115" t="n">
         <v>4</v>
@@ -10448,50 +11264,54 @@
       <c r="W115" t="s"/>
       <c r="X115" t="s"/>
       <c r="Y115" t="s">
-        <v>814</v>
+        <v>925</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
         <v>26502</v>
       </c>
-      <c r="B116" t="s"/>
-      <c r="C116" t="s"/>
+      <c r="B116" t="n">
+        <v>133242</v>
+      </c>
+      <c r="C116" t="s">
+        <v>926</v>
+      </c>
       <c r="D116" t="n">
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F116" t="s">
-        <v>815</v>
+        <v>927</v>
       </c>
       <c r="G116" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H116" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I116" t="s">
-        <v>816</v>
+        <v>928</v>
       </c>
       <c r="J116" t="s">
-        <v>817</v>
+        <v>929</v>
       </c>
       <c r="K116" t="s">
-        <v>818</v>
+        <v>930</v>
       </c>
       <c r="L116" t="s">
-        <v>819</v>
+        <v>931</v>
       </c>
       <c r="M116" t="n">
         <v>5</v>
       </c>
       <c r="N116" t="s">
-        <v>820</v>
+        <v>932</v>
       </c>
       <c r="O116" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P116" t="n">
         <v>4</v>
@@ -10515,50 +11335,54 @@
       <c r="W116" t="s"/>
       <c r="X116" t="s"/>
       <c r="Y116" t="s">
-        <v>819</v>
+        <v>931</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
         <v>26502</v>
       </c>
-      <c r="B117" t="s"/>
-      <c r="C117" t="s"/>
+      <c r="B117" t="n">
+        <v>133243</v>
+      </c>
+      <c r="C117" t="s">
+        <v>933</v>
+      </c>
       <c r="D117" t="n">
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F117" t="s">
-        <v>821</v>
+        <v>934</v>
       </c>
       <c r="G117" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H117" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I117" t="s">
-        <v>822</v>
+        <v>935</v>
       </c>
       <c r="J117" t="s">
-        <v>823</v>
+        <v>936</v>
       </c>
       <c r="K117" t="s">
-        <v>824</v>
+        <v>937</v>
       </c>
       <c r="L117" t="s">
-        <v>825</v>
+        <v>938</v>
       </c>
       <c r="M117" t="n">
         <v>4</v>
       </c>
       <c r="N117" t="s">
-        <v>826</v>
+        <v>939</v>
       </c>
       <c r="O117" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P117" t="n">
         <v>4</v>
@@ -10582,50 +11406,54 @@
       <c r="W117" t="s"/>
       <c r="X117" t="s"/>
       <c r="Y117" t="s">
-        <v>825</v>
+        <v>938</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
         <v>26502</v>
       </c>
-      <c r="B118" t="s"/>
-      <c r="C118" t="s"/>
+      <c r="B118" t="n">
+        <v>133244</v>
+      </c>
+      <c r="C118" t="s">
+        <v>940</v>
+      </c>
       <c r="D118" t="n">
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F118" t="s">
-        <v>827</v>
+        <v>941</v>
       </c>
       <c r="G118" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H118" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I118" t="s">
-        <v>828</v>
+        <v>942</v>
       </c>
       <c r="J118" t="s">
-        <v>829</v>
+        <v>943</v>
       </c>
       <c r="K118" t="s">
-        <v>830</v>
+        <v>944</v>
       </c>
       <c r="L118" t="s">
-        <v>831</v>
+        <v>945</v>
       </c>
       <c r="M118" t="n">
         <v>3</v>
       </c>
       <c r="N118" t="s">
-        <v>832</v>
+        <v>946</v>
       </c>
       <c r="O118" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P118" t="n">
         <v>3</v>
@@ -10649,50 +11477,54 @@
       <c r="W118" t="s"/>
       <c r="X118" t="s"/>
       <c r="Y118" t="s">
-        <v>831</v>
+        <v>945</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
         <v>26502</v>
       </c>
-      <c r="B119" t="s"/>
-      <c r="C119" t="s"/>
+      <c r="B119" t="n">
+        <v>133245</v>
+      </c>
+      <c r="C119" t="s">
+        <v>947</v>
+      </c>
       <c r="D119" t="n">
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F119" t="s">
-        <v>833</v>
+        <v>948</v>
       </c>
       <c r="G119" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H119" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I119" t="s">
-        <v>834</v>
+        <v>949</v>
       </c>
       <c r="J119" t="s">
-        <v>835</v>
+        <v>950</v>
       </c>
       <c r="K119" t="s">
-        <v>836</v>
+        <v>951</v>
       </c>
       <c r="L119" t="s">
-        <v>837</v>
+        <v>952</v>
       </c>
       <c r="M119" t="n">
         <v>4</v>
       </c>
       <c r="N119" t="s">
-        <v>838</v>
+        <v>953</v>
       </c>
       <c r="O119" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="P119" t="n">
         <v>3</v>
@@ -10716,50 +11548,54 @@
       <c r="W119" t="s"/>
       <c r="X119" t="s"/>
       <c r="Y119" t="s">
-        <v>839</v>
+        <v>954</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
         <v>26502</v>
       </c>
-      <c r="B120" t="s"/>
-      <c r="C120" t="s"/>
+      <c r="B120" t="n">
+        <v>133246</v>
+      </c>
+      <c r="C120" t="s">
+        <v>955</v>
+      </c>
       <c r="D120" t="n">
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F120" t="s">
-        <v>840</v>
+        <v>956</v>
       </c>
       <c r="G120" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H120" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I120" t="s">
-        <v>841</v>
+        <v>957</v>
       </c>
       <c r="J120" t="s">
-        <v>842</v>
+        <v>958</v>
       </c>
       <c r="K120" t="s">
-        <v>843</v>
+        <v>959</v>
       </c>
       <c r="L120" t="s">
-        <v>844</v>
+        <v>960</v>
       </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
       <c r="N120" t="s">
-        <v>845</v>
+        <v>961</v>
       </c>
       <c r="O120" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P120" t="n">
         <v>1</v>
@@ -10781,41 +11617,45 @@
       <c r="W120" t="s"/>
       <c r="X120" t="s"/>
       <c r="Y120" t="s">
-        <v>846</v>
+        <v>962</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
         <v>26502</v>
       </c>
-      <c r="B121" t="s"/>
-      <c r="C121" t="s"/>
+      <c r="B121" t="n">
+        <v>133247</v>
+      </c>
+      <c r="C121" t="s">
+        <v>963</v>
+      </c>
       <c r="D121" t="n">
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F121" t="s">
-        <v>847</v>
+        <v>964</v>
       </c>
       <c r="G121" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H121" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I121" t="s">
-        <v>848</v>
+        <v>965</v>
       </c>
       <c r="J121" t="s">
-        <v>849</v>
+        <v>966</v>
       </c>
       <c r="K121" t="s">
-        <v>850</v>
+        <v>967</v>
       </c>
       <c r="L121" t="s">
-        <v>851</v>
+        <v>968</v>
       </c>
       <c r="M121" t="n">
         <v>4</v>
@@ -10834,41 +11674,45 @@
       <c r="W121" t="s"/>
       <c r="X121" t="s"/>
       <c r="Y121" t="s">
-        <v>852</v>
+        <v>969</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
         <v>26502</v>
       </c>
-      <c r="B122" t="s"/>
-      <c r="C122" t="s"/>
+      <c r="B122" t="n">
+        <v>7</v>
+      </c>
+      <c r="C122" t="s">
+        <v>970</v>
+      </c>
       <c r="D122" t="n">
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F122" t="s">
-        <v>853</v>
+        <v>971</v>
       </c>
       <c r="G122" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H122" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I122" t="s">
-        <v>854</v>
+        <v>972</v>
       </c>
       <c r="J122" t="s">
-        <v>855</v>
+        <v>973</v>
       </c>
       <c r="K122" t="s">
-        <v>856</v>
+        <v>974</v>
       </c>
       <c r="L122" t="s">
-        <v>857</v>
+        <v>975</v>
       </c>
       <c r="M122" t="n">
         <v>5</v>
@@ -10895,41 +11739,45 @@
       <c r="W122" t="s"/>
       <c r="X122" t="s"/>
       <c r="Y122" t="s">
-        <v>857</v>
+        <v>975</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
         <v>26502</v>
       </c>
-      <c r="B123" t="s"/>
-      <c r="C123" t="s"/>
+      <c r="B123" t="n">
+        <v>133248</v>
+      </c>
+      <c r="C123" t="s">
+        <v>976</v>
+      </c>
       <c r="D123" t="n">
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F123" t="s">
-        <v>858</v>
+        <v>977</v>
       </c>
       <c r="G123" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H123" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I123" t="s">
-        <v>859</v>
+        <v>978</v>
       </c>
       <c r="J123" t="s">
-        <v>860</v>
+        <v>979</v>
       </c>
       <c r="K123" t="s">
-        <v>861</v>
+        <v>980</v>
       </c>
       <c r="L123" t="s">
-        <v>862</v>
+        <v>981</v>
       </c>
       <c r="M123" t="n">
         <v>3</v>
@@ -10956,41 +11804,45 @@
       <c r="W123" t="s"/>
       <c r="X123" t="s"/>
       <c r="Y123" t="s">
-        <v>863</v>
+        <v>982</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
         <v>26502</v>
       </c>
-      <c r="B124" t="s"/>
-      <c r="C124" t="s"/>
+      <c r="B124" t="n">
+        <v>133249</v>
+      </c>
+      <c r="C124" t="s">
+        <v>983</v>
+      </c>
       <c r="D124" t="n">
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F124" t="s">
-        <v>864</v>
+        <v>984</v>
       </c>
       <c r="G124" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H124" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I124" t="s">
-        <v>865</v>
+        <v>985</v>
       </c>
       <c r="J124" t="s">
-        <v>866</v>
+        <v>986</v>
       </c>
       <c r="K124" t="s">
-        <v>867</v>
+        <v>987</v>
       </c>
       <c r="L124" t="s">
-        <v>868</v>
+        <v>988</v>
       </c>
       <c r="M124" t="n">
         <v>5</v>
@@ -11017,7 +11869,7 @@
       <c r="W124" t="s"/>
       <c r="X124" t="s"/>
       <c r="Y124" t="s">
-        <v>868</v>
+        <v>988</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_162.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_162.xlsx
@@ -3526,7 +3526,7 @@
         <v>26502</v>
       </c>
       <c r="B2" t="n">
-        <v>133161</v>
+        <v>163983</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -3591,7 +3591,7 @@
         <v>26502</v>
       </c>
       <c r="B3" t="n">
-        <v>133162</v>
+        <v>163984</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -3662,7 +3662,7 @@
         <v>26502</v>
       </c>
       <c r="B4" t="n">
-        <v>133163</v>
+        <v>163985</v>
       </c>
       <c r="C4" t="s">
         <v>67</v>
@@ -3729,7 +3729,7 @@
         <v>26502</v>
       </c>
       <c r="B5" t="n">
-        <v>133164</v>
+        <v>163986</v>
       </c>
       <c r="C5" t="s">
         <v>75</v>
@@ -3863,7 +3863,7 @@
         <v>26502</v>
       </c>
       <c r="B7" t="n">
-        <v>133165</v>
+        <v>163987</v>
       </c>
       <c r="C7" t="s">
         <v>90</v>
@@ -3930,7 +3930,7 @@
         <v>26502</v>
       </c>
       <c r="B8" t="n">
-        <v>133166</v>
+        <v>133186</v>
       </c>
       <c r="C8" t="s">
         <v>97</v>
@@ -4192,7 +4192,7 @@
         <v>26502</v>
       </c>
       <c r="B12" t="n">
-        <v>133167</v>
+        <v>163988</v>
       </c>
       <c r="C12" t="s">
         <v>128</v>
@@ -4320,7 +4320,7 @@
         <v>26502</v>
       </c>
       <c r="B14" t="n">
-        <v>133168</v>
+        <v>163989</v>
       </c>
       <c r="C14" t="s">
         <v>142</v>
@@ -4452,7 +4452,7 @@
         <v>26502</v>
       </c>
       <c r="B16" t="n">
-        <v>133169</v>
+        <v>163990</v>
       </c>
       <c r="C16" t="s">
         <v>159</v>
@@ -4513,7 +4513,7 @@
         <v>26502</v>
       </c>
       <c r="B17" t="n">
-        <v>133170</v>
+        <v>163991</v>
       </c>
       <c r="C17" t="s">
         <v>165</v>
@@ -4580,7 +4580,7 @@
         <v>26502</v>
       </c>
       <c r="B18" t="n">
-        <v>133171</v>
+        <v>163992</v>
       </c>
       <c r="C18" t="s">
         <v>172</v>
@@ -4773,7 +4773,7 @@
         <v>26502</v>
       </c>
       <c r="B21" t="n">
-        <v>133172</v>
+        <v>163993</v>
       </c>
       <c r="C21" t="s">
         <v>197</v>
@@ -4838,7 +4838,7 @@
         <v>26502</v>
       </c>
       <c r="B22" t="n">
-        <v>133173</v>
+        <v>163994</v>
       </c>
       <c r="C22" t="s">
         <v>204</v>
@@ -4905,7 +4905,7 @@
         <v>26502</v>
       </c>
       <c r="B23" t="n">
-        <v>133174</v>
+        <v>163995</v>
       </c>
       <c r="C23" t="s">
         <v>210</v>
@@ -4976,7 +4976,7 @@
         <v>26502</v>
       </c>
       <c r="B24" t="n">
-        <v>133175</v>
+        <v>163996</v>
       </c>
       <c r="C24" t="s">
         <v>220</v>
@@ -5043,7 +5043,7 @@
         <v>26502</v>
       </c>
       <c r="B25" t="n">
-        <v>133176</v>
+        <v>163997</v>
       </c>
       <c r="C25" t="s">
         <v>226</v>
@@ -5108,7 +5108,7 @@
         <v>26502</v>
       </c>
       <c r="B26" t="n">
-        <v>133177</v>
+        <v>163998</v>
       </c>
       <c r="C26" t="s">
         <v>232</v>
@@ -5236,7 +5236,7 @@
         <v>26502</v>
       </c>
       <c r="B28" t="n">
-        <v>133178</v>
+        <v>163999</v>
       </c>
       <c r="C28" t="s">
         <v>246</v>
@@ -5366,7 +5366,7 @@
         <v>26502</v>
       </c>
       <c r="B30" t="n">
-        <v>133179</v>
+        <v>164000</v>
       </c>
       <c r="C30" t="s">
         <v>259</v>
@@ -5488,7 +5488,7 @@
         <v>26502</v>
       </c>
       <c r="B32" t="n">
-        <v>133180</v>
+        <v>164001</v>
       </c>
       <c r="C32" t="s">
         <v>273</v>
@@ -5553,7 +5553,7 @@
         <v>26502</v>
       </c>
       <c r="B33" t="n">
-        <v>133181</v>
+        <v>164002</v>
       </c>
       <c r="C33" t="s">
         <v>280</v>
@@ -5620,7 +5620,7 @@
         <v>26502</v>
       </c>
       <c r="B34" t="n">
-        <v>133182</v>
+        <v>164003</v>
       </c>
       <c r="C34" t="s">
         <v>287</v>
@@ -5823,7 +5823,7 @@
         <v>26502</v>
       </c>
       <c r="B37" t="n">
-        <v>133183</v>
+        <v>164004</v>
       </c>
       <c r="C37" t="s">
         <v>310</v>
@@ -5890,7 +5890,7 @@
         <v>26502</v>
       </c>
       <c r="B38" t="n">
-        <v>133184</v>
+        <v>164005</v>
       </c>
       <c r="C38" t="s">
         <v>316</v>
@@ -5957,7 +5957,7 @@
         <v>26502</v>
       </c>
       <c r="B39" t="n">
-        <v>133185</v>
+        <v>164006</v>
       </c>
       <c r="C39" t="s">
         <v>323</v>
@@ -6144,7 +6144,7 @@
         <v>26502</v>
       </c>
       <c r="B42" t="n">
-        <v>133186</v>
+        <v>164007</v>
       </c>
       <c r="C42" t="s">
         <v>344</v>
@@ -6270,7 +6270,7 @@
         <v>26502</v>
       </c>
       <c r="B44" t="n">
-        <v>133187</v>
+        <v>164008</v>
       </c>
       <c r="C44" t="s">
         <v>357</v>
@@ -6402,7 +6402,7 @@
         <v>26502</v>
       </c>
       <c r="B46" t="n">
-        <v>133188</v>
+        <v>164009</v>
       </c>
       <c r="C46" t="s">
         <v>373</v>
@@ -6471,7 +6471,7 @@
         <v>26502</v>
       </c>
       <c r="B47" t="n">
-        <v>133189</v>
+        <v>164010</v>
       </c>
       <c r="C47" t="s">
         <v>382</v>
@@ -6538,7 +6538,7 @@
         <v>26502</v>
       </c>
       <c r="B48" t="n">
-        <v>133190</v>
+        <v>133184</v>
       </c>
       <c r="C48" t="s">
         <v>389</v>
@@ -6607,7 +6607,7 @@
         <v>26502</v>
       </c>
       <c r="B49" t="n">
-        <v>133191</v>
+        <v>164011</v>
       </c>
       <c r="C49" t="s">
         <v>398</v>
@@ -6672,7 +6672,7 @@
         <v>26502</v>
       </c>
       <c r="B50" t="n">
-        <v>133192</v>
+        <v>164012</v>
       </c>
       <c r="C50" t="s">
         <v>404</v>
@@ -6741,7 +6741,7 @@
         <v>26502</v>
       </c>
       <c r="B51" t="n">
-        <v>133193</v>
+        <v>164013</v>
       </c>
       <c r="C51" t="s">
         <v>414</v>
@@ -6810,7 +6810,7 @@
         <v>26502</v>
       </c>
       <c r="B52" t="n">
-        <v>133194</v>
+        <v>164014</v>
       </c>
       <c r="C52" t="s">
         <v>424</v>
@@ -6940,7 +6940,7 @@
         <v>26502</v>
       </c>
       <c r="B54" t="n">
-        <v>133195</v>
+        <v>164015</v>
       </c>
       <c r="C54" t="s">
         <v>440</v>
@@ -7066,7 +7066,7 @@
         <v>26502</v>
       </c>
       <c r="B56" t="n">
-        <v>133196</v>
+        <v>164016</v>
       </c>
       <c r="C56" t="s">
         <v>452</v>
@@ -7127,7 +7127,7 @@
         <v>26502</v>
       </c>
       <c r="B57" t="n">
-        <v>133197</v>
+        <v>164017</v>
       </c>
       <c r="C57" t="s">
         <v>459</v>
@@ -7525,7 +7525,7 @@
         <v>26502</v>
       </c>
       <c r="B63" t="n">
-        <v>133189</v>
+        <v>133184</v>
       </c>
       <c r="C63" t="s">
         <v>389</v>
@@ -7594,7 +7594,7 @@
         <v>26502</v>
       </c>
       <c r="B64" t="n">
-        <v>133198</v>
+        <v>164018</v>
       </c>
       <c r="C64" t="s">
         <v>509</v>
@@ -7655,7 +7655,7 @@
         <v>26502</v>
       </c>
       <c r="B65" t="n">
-        <v>133199</v>
+        <v>164019</v>
       </c>
       <c r="C65" t="s">
         <v>514</v>
@@ -7720,7 +7720,7 @@
         <v>26502</v>
       </c>
       <c r="B66" t="n">
-        <v>133200</v>
+        <v>164020</v>
       </c>
       <c r="C66" t="s">
         <v>522</v>
@@ -7791,7 +7791,7 @@
         <v>26502</v>
       </c>
       <c r="B67" t="n">
-        <v>133201</v>
+        <v>164021</v>
       </c>
       <c r="C67" t="s">
         <v>531</v>
@@ -7862,7 +7862,7 @@
         <v>26502</v>
       </c>
       <c r="B68" t="n">
-        <v>133202</v>
+        <v>164022</v>
       </c>
       <c r="C68" t="s">
         <v>540</v>
@@ -8000,7 +8000,7 @@
         <v>26502</v>
       </c>
       <c r="B70" t="n">
-        <v>133165</v>
+        <v>133186</v>
       </c>
       <c r="C70" t="s">
         <v>97</v>
@@ -8071,7 +8071,7 @@
         <v>26502</v>
       </c>
       <c r="B71" t="n">
-        <v>133203</v>
+        <v>164023</v>
       </c>
       <c r="C71" t="s">
         <v>565</v>
@@ -8211,7 +8211,7 @@
         <v>26502</v>
       </c>
       <c r="B73" t="n">
-        <v>133204</v>
+        <v>164024</v>
       </c>
       <c r="C73" t="s">
         <v>584</v>
@@ -8280,7 +8280,7 @@
         <v>26502</v>
       </c>
       <c r="B74" t="n">
-        <v>133205</v>
+        <v>164025</v>
       </c>
       <c r="C74" t="s">
         <v>589</v>
@@ -8351,7 +8351,7 @@
         <v>26502</v>
       </c>
       <c r="B75" t="n">
-        <v>133206</v>
+        <v>164026</v>
       </c>
       <c r="C75" t="s">
         <v>596</v>
@@ -8422,7 +8422,7 @@
         <v>26502</v>
       </c>
       <c r="B76" t="n">
-        <v>133207</v>
+        <v>164027</v>
       </c>
       <c r="C76" t="s">
         <v>605</v>
@@ -8487,7 +8487,7 @@
         <v>26502</v>
       </c>
       <c r="B77" t="n">
-        <v>133208</v>
+        <v>164028</v>
       </c>
       <c r="C77" t="s">
         <v>615</v>
@@ -8558,7 +8558,7 @@
         <v>26502</v>
       </c>
       <c r="B78" t="n">
-        <v>133209</v>
+        <v>164029</v>
       </c>
       <c r="C78" t="s">
         <v>625</v>
@@ -8696,7 +8696,7 @@
         <v>26502</v>
       </c>
       <c r="B80" t="n">
-        <v>133210</v>
+        <v>164030</v>
       </c>
       <c r="C80" t="s">
         <v>643</v>
@@ -8765,7 +8765,7 @@
         <v>26502</v>
       </c>
       <c r="B81" t="n">
-        <v>133189</v>
+        <v>133184</v>
       </c>
       <c r="C81" t="s">
         <v>389</v>
@@ -8832,7 +8832,7 @@
         <v>26502</v>
       </c>
       <c r="B82" t="n">
-        <v>133211</v>
+        <v>164031</v>
       </c>
       <c r="C82" t="s">
         <v>654</v>
@@ -8907,7 +8907,7 @@
         <v>26502</v>
       </c>
       <c r="B83" t="n">
-        <v>133212</v>
+        <v>164032</v>
       </c>
       <c r="C83" t="s">
         <v>662</v>
@@ -8982,7 +8982,7 @@
         <v>26502</v>
       </c>
       <c r="B84" t="n">
-        <v>133213</v>
+        <v>164033</v>
       </c>
       <c r="C84" t="s">
         <v>672</v>
@@ -9132,7 +9132,7 @@
         <v>26502</v>
       </c>
       <c r="B86" t="n">
-        <v>133214</v>
+        <v>164034</v>
       </c>
       <c r="C86" t="s">
         <v>686</v>
@@ -9197,7 +9197,7 @@
         <v>26502</v>
       </c>
       <c r="B87" t="n">
-        <v>133215</v>
+        <v>164035</v>
       </c>
       <c r="C87" t="s">
         <v>696</v>
@@ -9272,7 +9272,7 @@
         <v>26502</v>
       </c>
       <c r="B88" t="n">
-        <v>133216</v>
+        <v>164036</v>
       </c>
       <c r="C88" t="s">
         <v>703</v>
@@ -9347,7 +9347,7 @@
         <v>26502</v>
       </c>
       <c r="B89" t="n">
-        <v>133217</v>
+        <v>164037</v>
       </c>
       <c r="C89" t="s">
         <v>712</v>
@@ -9422,7 +9422,7 @@
         <v>26502</v>
       </c>
       <c r="B90" t="n">
-        <v>133218</v>
+        <v>164038</v>
       </c>
       <c r="C90" t="s">
         <v>721</v>
@@ -9497,7 +9497,7 @@
         <v>26502</v>
       </c>
       <c r="B91" t="n">
-        <v>133219</v>
+        <v>164039</v>
       </c>
       <c r="C91" t="s">
         <v>729</v>
@@ -9572,7 +9572,7 @@
         <v>26502</v>
       </c>
       <c r="B92" t="n">
-        <v>133220</v>
+        <v>164040</v>
       </c>
       <c r="C92" t="s">
         <v>739</v>
@@ -9643,7 +9643,7 @@
         <v>26502</v>
       </c>
       <c r="B93" t="n">
-        <v>133221</v>
+        <v>164041</v>
       </c>
       <c r="C93" t="s">
         <v>747</v>
@@ -9714,7 +9714,7 @@
         <v>26502</v>
       </c>
       <c r="B94" t="n">
-        <v>133222</v>
+        <v>164042</v>
       </c>
       <c r="C94" t="s">
         <v>753</v>
@@ -9785,7 +9785,7 @@
         <v>26502</v>
       </c>
       <c r="B95" t="n">
-        <v>133223</v>
+        <v>164043</v>
       </c>
       <c r="C95" t="s">
         <v>760</v>
@@ -9929,7 +9929,7 @@
         <v>26502</v>
       </c>
       <c r="B97" t="n">
-        <v>133224</v>
+        <v>164044</v>
       </c>
       <c r="C97" t="s">
         <v>777</v>
@@ -10004,7 +10004,7 @@
         <v>26502</v>
       </c>
       <c r="B98" t="n">
-        <v>133225</v>
+        <v>164045</v>
       </c>
       <c r="C98" t="s">
         <v>786</v>
@@ -10075,7 +10075,7 @@
         <v>26502</v>
       </c>
       <c r="B99" t="n">
-        <v>133226</v>
+        <v>164046</v>
       </c>
       <c r="C99" t="s">
         <v>793</v>
@@ -10142,7 +10142,7 @@
         <v>26502</v>
       </c>
       <c r="B100" t="n">
-        <v>133227</v>
+        <v>164047</v>
       </c>
       <c r="C100" t="s">
         <v>799</v>
@@ -10217,7 +10217,7 @@
         <v>26502</v>
       </c>
       <c r="B101" t="n">
-        <v>133228</v>
+        <v>164048</v>
       </c>
       <c r="C101" t="s">
         <v>809</v>
@@ -10367,7 +10367,7 @@
         <v>26502</v>
       </c>
       <c r="B103" t="n">
-        <v>133229</v>
+        <v>164049</v>
       </c>
       <c r="C103" t="s">
         <v>827</v>
@@ -10438,7 +10438,7 @@
         <v>26502</v>
       </c>
       <c r="B104" t="n">
-        <v>133230</v>
+        <v>164050</v>
       </c>
       <c r="C104" t="s">
         <v>835</v>
@@ -10503,7 +10503,7 @@
         <v>26502</v>
       </c>
       <c r="B105" t="n">
-        <v>133231</v>
+        <v>164051</v>
       </c>
       <c r="C105" t="s">
         <v>845</v>
@@ -10578,7 +10578,7 @@
         <v>26502</v>
       </c>
       <c r="B106" t="n">
-        <v>133232</v>
+        <v>164052</v>
       </c>
       <c r="C106" t="s">
         <v>855</v>
@@ -10649,7 +10649,7 @@
         <v>26502</v>
       </c>
       <c r="B107" t="n">
-        <v>133233</v>
+        <v>164053</v>
       </c>
       <c r="C107" t="s">
         <v>862</v>
@@ -10716,7 +10716,7 @@
         <v>26502</v>
       </c>
       <c r="B108" t="n">
-        <v>133234</v>
+        <v>164054</v>
       </c>
       <c r="C108" t="s">
         <v>868</v>
@@ -10787,7 +10787,7 @@
         <v>26502</v>
       </c>
       <c r="B109" t="n">
-        <v>133235</v>
+        <v>164055</v>
       </c>
       <c r="C109" t="s">
         <v>876</v>
@@ -10858,7 +10858,7 @@
         <v>26502</v>
       </c>
       <c r="B110" t="n">
-        <v>133236</v>
+        <v>164056</v>
       </c>
       <c r="C110" t="s">
         <v>883</v>
@@ -10929,7 +10929,7 @@
         <v>26502</v>
       </c>
       <c r="B111" t="n">
-        <v>133237</v>
+        <v>164057</v>
       </c>
       <c r="C111" t="s">
         <v>890</v>
@@ -11000,7 +11000,7 @@
         <v>26502</v>
       </c>
       <c r="B112" t="n">
-        <v>133238</v>
+        <v>164058</v>
       </c>
       <c r="C112" t="s">
         <v>898</v>
@@ -11067,7 +11067,7 @@
         <v>26502</v>
       </c>
       <c r="B113" t="n">
-        <v>133239</v>
+        <v>164059</v>
       </c>
       <c r="C113" t="s">
         <v>904</v>
@@ -11134,7 +11134,7 @@
         <v>26502</v>
       </c>
       <c r="B114" t="n">
-        <v>133240</v>
+        <v>164060</v>
       </c>
       <c r="C114" t="s">
         <v>912</v>
@@ -11201,7 +11201,7 @@
         <v>26502</v>
       </c>
       <c r="B115" t="n">
-        <v>133241</v>
+        <v>164061</v>
       </c>
       <c r="C115" t="s">
         <v>919</v>
@@ -11272,7 +11272,7 @@
         <v>26502</v>
       </c>
       <c r="B116" t="n">
-        <v>133242</v>
+        <v>164062</v>
       </c>
       <c r="C116" t="s">
         <v>926</v>
@@ -11343,7 +11343,7 @@
         <v>26502</v>
       </c>
       <c r="B117" t="n">
-        <v>133243</v>
+        <v>164063</v>
       </c>
       <c r="C117" t="s">
         <v>933</v>
@@ -11414,7 +11414,7 @@
         <v>26502</v>
       </c>
       <c r="B118" t="n">
-        <v>133244</v>
+        <v>164064</v>
       </c>
       <c r="C118" t="s">
         <v>940</v>
@@ -11485,7 +11485,7 @@
         <v>26502</v>
       </c>
       <c r="B119" t="n">
-        <v>133245</v>
+        <v>164065</v>
       </c>
       <c r="C119" t="s">
         <v>947</v>
@@ -11556,7 +11556,7 @@
         <v>26502</v>
       </c>
       <c r="B120" t="n">
-        <v>133246</v>
+        <v>164066</v>
       </c>
       <c r="C120" t="s">
         <v>955</v>
@@ -11625,7 +11625,7 @@
         <v>26502</v>
       </c>
       <c r="B121" t="n">
-        <v>133247</v>
+        <v>164067</v>
       </c>
       <c r="C121" t="s">
         <v>963</v>
@@ -11747,7 +11747,7 @@
         <v>26502</v>
       </c>
       <c r="B123" t="n">
-        <v>133248</v>
+        <v>164068</v>
       </c>
       <c r="C123" t="s">
         <v>976</v>
@@ -11812,7 +11812,7 @@
         <v>26502</v>
       </c>
       <c r="B124" t="n">
-        <v>133249</v>
+        <v>164069</v>
       </c>
       <c r="C124" t="s">
         <v>983</v>
